--- a/data/hotels_by_city/Dallas/Dallas_shard_340.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_340.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1038">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>purr65</t>
+  </si>
+  <si>
     <t>06/12/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Cleaning is ok, but everyday around 9:30am housekeeping wake-ups everyone by vacuuming the hallway. Vacuuming the hallway 4-5 times til 5pm. ITS' RIDICULOUS  FOR A DIRTY CARPET (ON ALL FLOORS) THAT NEEDS REPLACEMENT TO LAMINATE INSTEAD. You smell the vacuum burn in the room. I never stayed in a hotel that allowed a policy like this to get their guests up and exited out the hotel by 12pm. Extremely rude to their hotel guests.More</t>
   </si>
   <si>
+    <t>nikkiw00dward</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r525264065-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>I book this place but was disappointed. Room was small and dirty, it need lot of updating. Staff need customer service training. Breakfast was very dry and look frozen and reheated. I will not stay in this place again.</t>
   </si>
   <si>
+    <t>Debbie B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r522065652-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>mrkevinhamelin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r520813983-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t>I am a Spire Elite member, which tells you I stay with IHG all the time for business. From check-in I had no internet and when I told the management they moved me rooms. Again, almost no internet...1 bar of signal. They gave me a phone number to call in order to get on. This worked for 1 day and for the past 9 days I have had no internet at all. My cable was not working and they had to switch out the TV, phone wasn't working in the room, had to get that fixed. And to this date... they still can't help with the internet issues. Worst experience I have ever had at IHG and terrible customer service. I waited for breakfast at the restaurant for almost 20 minutes before anyone even talked to me. When I got my breakfast; 3 egg omelet, some fruit and juice... almost $20.00. Save your money and go somewhere else.More</t>
   </si>
   <si>
+    <t>EmmaG08</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r492783227-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>This hotel is recently remodeled, although not very well. The need to clean carpets is paramount here. There are spots all over the carpets and chairs in the main space and the rooms. The doors to the rooms slam shut as they are heavy, but are not square in the frame, leaving a HUGE space where noise and light enter the room. Beds were very old and were not included in the remodel whatsoever. It was not the worst stay, but felt as if I needed to scrub clean after staying here. Front desk staff was friendly.More</t>
   </si>
   <si>
+    <t>Robert  J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r491128569-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -283,6 +301,9 @@
   </si>
   <si>
     <t>Stopped here on our way back home. Very nice employees and very cool. We will visit again. The art work and the theme is amazing. Washer and dryers are free to use, big hotel. Very impressed. The breakfast is good and plus they have a giftshop.</t>
+  </si>
+  <si>
+    <t>JustSayin-HB</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r473277491-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
@@ -328,6 +349,9 @@
 I admit, none of these...I've stayed in much worse places no question but for the price it should be better.It's fine, clean enough, newly remodeled although rather shotty work nor the overly modern contemporary look they were going for. Couple downsides for me... 1. No black out curtains. 2. No hair drier in my room. 3. Went out to my car and discovered there is a spot for key card to get back in the door, but it's just a case no actual reader had to walk all the way to front to get back in and then all the way back to other end of building back to room. 4. Any place I've ever stayed previously that listed continental breakfast, it was included. Here $9 please. For toast and fruit? No thanks!5. Called room service to find out how long the wait for room service would be, they transferred me to front desk, who put me on hold for 5 min to ask room service (SMH). Then was adv if ordered now would be 10-15 min. Excellent. But had to call back room service (really front desk couldn't transfer me?) they take more order and say will be 30min. Oy!!! Not what I was just told. Food was meh. Not bad for hotel food.6. Called front desk about hair drier, say they will bring one. Shows up hour later, too tired to shower tonight. Awesome!I admit, none of these things are horrible things to go wrong and maybe I'm just being picky, but I would expect this at a 1-2 star roadside for less than $100 per night. But not for what they are charging. Let's see if I can actually get some sleep without those black out curtains.More</t>
   </si>
   <si>
+    <t>Silvertx</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r473025085-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -343,6 +367,9 @@
     <t xml:space="preserve">Management was quick to respond when the deadbolt on my door was not functioning.The food and service at the on-site restaurant was amazing! The bed and pillows were comfortable. Rooms were noisy but hotel was full. </t>
   </si>
   <si>
+    <t>John B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r465902208-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -364,6 +391,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Christopher L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r460871436-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -391,6 +421,9 @@
     <t>For the money I'm spending, I've stayed at better places. This hotel's staff is terrific - very friendly and great customer service. I ate at the restaurant last night and the BBQ bacon cheeseburger and fries were delicious and reasonably priced. The problems here, however, are with the facility. The building seems old and badly in need of an update. There is some kind of construction down the hallway from my room, but I've seen no work happening. The lobby level appears to have had some renovation and the photos of that level on the IHG app no longer match reality. My room looks very old and not that clean. The toilet barely flushes and the handle sticks, leaving the water running. The walls appear thin because I can hear everything happening in the rooms on either side of my room. Additionally, the hotel is feet away from the expressway, which is a constant source of noise. I will not be staying here in the future. I expect there are other places reasonably priced in the area. If not, it will be worth it to spend more for a better experience. More</t>
   </si>
   <si>
+    <t>arsimes</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r442622842-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -418,6 +451,9 @@
     <t>We were placed on a floor that had not been updated since the 70s I swear, dirty carpet, smelly room, windows nailed shut. The tub did not drain and the AC did not work . When i complained to management he blew me off and did not make any gesture to make things better, save your money and stay somewhere else!More</t>
   </si>
   <si>
+    <t>CD R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r437216076-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -436,6 +472,9 @@
     <t>November 2016</t>
   </si>
   <si>
+    <t>JHAR53</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r430319933-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -463,6 +502,9 @@
     <t>This is the worst holiday inn I've ever stayed in. Booked through their reservation site and did not get what we we're told. Went through 4 rooms before we got one that was decent enough to stay the night. Drains stopped up, trash on the floor, a/c didn't work and this is just the tip of it. I would not recommend this hotel to anyone.More</t>
   </si>
   <si>
+    <t>Angie H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r426620298-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -490,6 +532,9 @@
     <t>We have visited this hotel a number of times over the last several years.  Every year, we have stayed here for the OU/Texas game. It is easily accessible to the Dart train, Belt Line Drive and many restaurants. It seems the more remodeling they  accomplish, the worse this place gets. The lobby is bright and beautiful, but the rooms and amenities are in shambles-still!  We went with another couple and their room had torn plastic blowing in the wind on the outside of their window.  (The desk clerk told us it was to keep the paint off of the windows. ha!)  Our room had so much dirt on the outside of the window, that we could barely see through it.  We had one small trash can in the bathroom that could not even accommodate the empty toilet paper roll and the used coffee cups.  There were 2 half eaten containers of ice cream in our fridge.  We only had ONE nightstand on one side of the bed.  There was ample room and a place for the second nightstand, but we were told that some rooms have only one nightstand and other rooms have 2.  The bathroom appeared to have been painted by a pre-schooler.  Paint was everywhere on the floor and door and very sloppily thrown around the door frame.  The bathroom sink was stuffed into a small cubby hole where there was no counter space. The new carpet was...We have visited this hotel a number of times over the last several years.  Every year, we have stayed here for the OU/Texas game. It is easily accessible to the Dart train, Belt Line Drive and many restaurants. It seems the more remodeling they  accomplish, the worse this place gets. The lobby is bright and beautiful, but the rooms and amenities are in shambles-still!  We went with another couple and their room had torn plastic blowing in the wind on the outside of their window.  (The desk clerk told us it was to keep the paint off of the windows. ha!)  Our room had so much dirt on the outside of the window, that we could barely see through it.  We had one small trash can in the bathroom that could not even accommodate the empty toilet paper roll and the used coffee cups.  There were 2 half eaten containers of ice cream in our fridge.  We only had ONE nightstand on one side of the bed.  There was ample room and a place for the second nightstand, but we were told that some rooms have only one nightstand and other rooms have 2.  The bathroom appeared to have been painted by a pre-schooler.  Paint was everywhere on the floor and door and very sloppily thrown around the door frame.  The bathroom sink was stuffed into a small cubby hole where there was no counter space. The new carpet was not installed properly and was coming out of the threshold in between the bed and the bathroom. The one girl at the reception desk that roots for Oklahoma every year and always wears an OU t-shirt on gameday is very sweet, but even she had no say in resolving our situation.  There was some type of convention or party on Saturday night that resulted in many cars using the parking lot out front and along the side and back and 5 buses from Mexico that also contributed to little parking for the hotel guests who were staying here.  When we inquired about changing rooms or being compensated, we were told that we had received a very special rate for these rooms as they are usually $179 rooms.  We were also told that floors 3 and higher were for their executive guests  We requested to be compensated for our displeasure and were asked what we would like...we would like whatever compensation you would give any other guest whose room was not finished.  We were told all rooms are finished. We have stayed on the higher floors before and never paid more than $140/night. It smelled as if someone had been smoking in our hallway too.  Unfortunately, we will find other accommodations in the future and start a new tradition that will not include this run down hotel.  Our friends were charged a higher rate for their room (on the same floor) but it must be because they had 2 trashcans and 2 nightstands in their room!!!More</t>
   </si>
   <si>
+    <t>Cincybearcatfan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r424781227-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -508,6 +553,9 @@
     <t>I've stayed here many times over the last few years. This hotel has transformed from a dingy, dated hotel to a bright an modern hotel.  Still a few glitches to work out, but the owner and management are definitely going in the right direction. What was once a dark, old hotel is now bright and airy.  The Pros:Staff are very friendly and eager to assist whether at the front desk or at the restaurant.  The rooms are well appointed with plenty of light and plugs.  Modern and clean.  Comfortable.  Grounds are clean.  Plenty of space to work or relax in the room. Work Space area contains Closet, TV, Microwave, Coffee Maker and Fridge.The Cons:The Wi-Fi did not work the day I was there.  I knew my computer was working correctly as I tapped into the car dealer next door without any problem.  This is something that definitely needs to be fixed.  Upon check in, their credit card system was down, delaying anyone paying with credit from checking into rooms.  I sat in the restaurant area for breakfast the morning I was leaving to head back out of town and was not helped by wait staff.  I ended up leaving to catch my flight without eating there.  Small things like only one elevator in service...and that elevator's buttons were being held on by clear packaging tape.This hotel continues to get better and I applaud them for that.More</t>
   </si>
   <si>
+    <t>reg v</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r423295828-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -532,6 +580,9 @@
     <t>The goods:  location, beautiful lobby, lots of cable channels, quiet.The bads:  coffee not out til six am?!  every other HI Express has coffee 24 x7!The wierd: felt mid remodel, elevator buttons had tape on them holding them in, when I turned out the lights in a certain sequence, it seemed like my fire alarm went on for a nano second, jogging machine wouldnt work then magically worked; there weren't enough outlets, most hotels have addressed this in some way.I will stay again, cuzz of my IHG points and none of the weirds were show stoppers!  Staff was nice and helpful.More</t>
   </si>
   <si>
+    <t>jeeperzfoltz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r420936946-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -556,6 +607,9 @@
     <t>We were in Richardson to visit my niece, a total of 3 adults we paid for THREE ADULTS,but company policy is free breakfast for 2! To top it off the breakfast isn't really free,you get a voucher for 10 dollars off,but they fail to tell you this,until after you have ordered and eaten breakfast! The night clerk told us we could make a plate and bring it up to the room for our third ( paid for) person. She(night clerk) was lying and she knew it,you have to order your breakfast and pay for it there! I guess she knew we would have  found a better hotel. The room has 2 double beds!!! for 3 adults,no chair for reading. We had a view of a parking lot or 2. They are remodeling or something as there were markings all over the hallway,the room was small,not enough towels .or places to put suitcases,The only upside was the server Betsy and the cook who did an amazing breakfast. Next time we visit,we will find a better hotel,that has integrity and honesty as a policy.More</t>
   </si>
   <si>
+    <t>stillyfisher</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r417245355-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -580,6 +634,9 @@
     <t>The lobby was really quite lovely. The elevator button had tape and a note on it explaining to the staff not to use a certain button. The halls on the 5th floor had penciled in notes near each doorway. It looked totally dumpy and maybe "mid-remodel". The room had a small TV (too small), there were not enough towels for all of us to use. There was a reading lamp in a corner but NO chair! If you like to look out at parking garages and parking lots, this is your place! I reserved a room for three adults. We had to pay extra for a third person, I guess because the room had two double beds (not queen!!---had I known, I'd have looked further for a different place).  In my confirmation email, I was told there will be free breakfast for two guests. I thought that was odd, but figured I'd work that out when we arrived and checked in. I told the desk clerk that I had paid extra for a third person and was expecting free breakfast for all of us, not just two (seems reasonable, right?). She then explained that she was actually giving us two vouchers for breakfast, but that we could fix a plate of food to take to the 3rd person. How ridiculous, but I figured we'd work it out somehow in the morning. So in the morning my sister and I went...The lobby was really quite lovely. The elevator button had tape and a note on it explaining to the staff not to use a certain button. The halls on the 5th floor had penciled in notes near each doorway. It looked totally dumpy and maybe "mid-remodel". The room had a small TV (too small), there were not enough towels for all of us to use. There was a reading lamp in a corner but NO chair! If you like to look out at parking garages and parking lots, this is your place! I reserved a room for three adults. We had to pay extra for a third person, I guess because the room had two double beds (not queen!!---had I known, I'd have looked further for a different place).  In my confirmation email, I was told there will be free breakfast for two guests. I thought that was odd, but figured I'd work that out when we arrived and checked in. I told the desk clerk that I had paid extra for a third person and was expecting free breakfast for all of us, not just two (seems reasonable, right?). She then explained that she was actually giving us two vouchers for breakfast, but that we could fix a plate of food to take to the 3rd person. How ridiculous, but I figured we'd work it out somehow in the morning. So in the morning my sister and I went down to breakfast while our 78 year old mother stayed in the room because she insisted we go, and could bring her some juice or a muffin or something "light".  So, at the restaurant (not a continental breakfast) we could immediately see that it would not be possible to take a plate up to the room, because the vouchers had to be turned in with the food orders.  I mentioned to the server (a lovely, soft spoken elderly lady named Betsy) that our mother was also a guest and was in our room waiting for us to bring her something to eat. She told me to go get her and of course she could eat also! So we got mom down to the dining area and we all ate a delicious breakfast. Betsy then brought a bill to our table for a little over $7...not much but, she said she didn't charge for mom's breakfast but my sister and I had gone over the voucher limit of $10 each! No one had mentioned the amount of the vouchers and mom was the only one who brought her wallet to the dining room. She had a $20 which she put in the bill holder and we waited for Betsy to come back and get the money and give us change. After 15 minutes no one picked it up (but they had cleared our plates) so I went up to the room and brought back a $10. At check out the next morning, the same desk clerk was there and I explained that I felt the Holiday Inn policy of two breakfast vouchers was RIDICULOUS, considering we paid for three guests! I told her the staff was friendly and all, but I would not be staying there again due to the breakfast voucher rule and would write a poor review stating what happened. She urged me to not give a poor review and perhaps they would return the money we paid for breakfast. (it hasn't happened yet) To top it off, I got a telephone message from the server, Betsy.....apparently she must have taken the fall for the fiasco and apologized. She said I wouldn't be charged the $7 which is nuts because I already paid them $10 cash. Anyway, our beef was not actually with the server but will the desk clerk (she HAD to know we couldn't get a meal to take up to mom!!) and that stupid policy. I feel badly for Betsy! My daughter lives in Richardson and I visit often but will not choose this hotel ever again!More</t>
   </si>
   <si>
+    <t>tammcc2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r401019487-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -607,6 +664,9 @@
     <t>Do not stay here! Air conditioning is hit or miss.  Really loud when it did turn on.  You have to ask for a fridge to be delivered.  The staff is rude.  We had 4 people staying in our room and they would only give you 2 towels!  Would ask for more and they would never arrive!  Just do not stay here.  The renovations are lip stick on a pig!  There was even a rat by the pool. Awful!!!More</t>
   </si>
   <si>
+    <t>G-Nella</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r399192563-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -631,6 +691,9 @@
     <t>Said they were remodeling, I had one of the remodeled rooms. HA, looked like I did the remodeling. Horrible! Staff was terrible. The pool is awful.  I had to wear my flip flops in because of the roughness.  Pool furniture was a joke along with the ragged towels they gave you.  Breakfast was terrible had to go to McDonalds every morning. Tere are plenty of other hotels around.More</t>
   </si>
   <si>
+    <t>Jus4kxs</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r379731348-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -658,6 +721,9 @@
     <t>Made it back to the hotel at 3:10pm on our second night.  Housekeeping was just getting to our room.   Had to hang in the lobby.   I consider this disappointing.    The rooms cleaned 1st should be the repeat guess so they do not wait.   Also, no breakfast is included at this hotel.    The rooms are super small.  The bathroom sink is tiny and is not in the bathroom.   I could go on.    Overall, disappointing location. More</t>
   </si>
   <si>
+    <t>tholland55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r377467084-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -688,6 +754,9 @@
     <t>Probably the best feature of the hotel is the staff. They were friendly and helpful and seemed to enjoy their job, This applied to front desk and restaurant staff. The rooms were spacious and the bed was comfortable.  The renovations seems to be a problem though. All the windows were blocked by plastic due to the outside being painted. I realise this is temporary, but does spoil the light and view. Corridor noise seems to be an issue as well - which seems strange for a renovated hotel. The new renovations were very shoddy - my bathroom seemed to have been refurbished by an unskilled home handyman! One of the powerpoints was installed at an angle of 20 degrees from the vertical. In all, some positives but the poor renovations detracted from the experience somewhat.More</t>
   </si>
   <si>
+    <t>Sherry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r374040345-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -706,6 +775,9 @@
     <t>I have stayed at this location 3-4 times since February. They are in the middle of remodeling. I really like the location, since it has easy access to I-75. My stay this time was okay, but I was just disappointed that I got a room with no microwave/fridge and was going to have to pay extra to get one. Since I'm a travel nurse, it helps a lot to have these amenities. When I explained that I had a microwave/fridge during my previous stay, the clerk told me only the remodeled floors offers those which are floors 1,2,and 6. I also wish they offered free breakfast. I keep getting this hotel because I use Name Your Price or Express Deal through Priceline. Nothing against the hotel because like I said my stays haven't been bad, but I would just rather stay somewhere that offers those amenities free.More</t>
   </si>
   <si>
+    <t>Jasmin P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r372967663-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -730,6 +802,9 @@
     <t>So, my family and I checked in yesterday  (5P.M. 5/13/16) and the lobby was gorgeous, bright, contemporary design. The staff was polite but they were renovating.  No biggie. Checked in and headed to the 4th floor. The first step off the elevator and fear took over. It was dark and old and eerie. Looking down the hallway reminded me of The Shining. It was like angry spirits were floating around me. When I got the room it was worse, it smelled bad and looked like Norman Bates house on Bates Motel. The bathroom was small and all black. Black floors and walls and the door was a mirror. The light above flickered like a scene from Ghost when Whoopi Goldberg was channeling Patrick Swayze. The kids, ages 12 and 16 (boys by the way), we're afraid to shower. We were afraid to sleep there and even more afraid to have to go to the bathroom in the middle of the night. Needless to say we checked out at 10 P.M. The staff told me we couldn't get a refund and I told her I didn't care. Just let me leave with my life. We went to eat dinner and the thought of the hotel ruined my appetite.  I will NEVER stay here again....we'll maybe in 10 years when the remodel is complete.More</t>
   </si>
   <si>
+    <t>smockandknit</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r372720536-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -748,6 +823,9 @@
     <t>We are staying here because they offered 10,000 points per night...and it helps us retain our Spire Elite status. We get upgrades to their best rooms on the 6th floor executive level. Partially recently renovated (still ongoing). We have stayed at A LOT of IHG hotels in the USA and Europe. This one rates a renovation failure! They are basically (and with very poor workmanship), polishing a turd! Now decked out in modern euro-trash decor of bright lemon yellow and gray...they kept the old bathtub, toilet, thin windows (and Central Expressway is noisy 24/7 and every room is affected), and basic shell of the rooms...slapped on paint and installed ugly carpet. The shower head sprays when trying to run a bath. The drain plug doesn't seal completely which drains your bath water during your bath. The ceiling in the room was peeling badly! See photo. There is no place to set your luggage...no hooks to hang a bathrobe...tiny sink in a wasted larger space...two full sized beds when there was plenty of room for two queen beds. Basic noisy window A/C. It all adds up to yucky. And this is one of their best rooms??? Wait staff in restaurant was efficient but poorly trained in communication skills, leaving us feeling uncomfortable. Food was surprising good and affordable! Swimming pools were small and uninviting. No pool towels offered. The continuing renovation work is disturbing. The 10,000 points is the only reason...We are staying here because they offered 10,000 points per night...and it helps us retain our Spire Elite status. We get upgrades to their best rooms on the 6th floor executive level. Partially recently renovated (still ongoing). We have stayed at A LOT of IHG hotels in the USA and Europe. This one rates a renovation failure! They are basically (and with very poor workmanship), polishing a turd! Now decked out in modern euro-trash decor of bright lemon yellow and gray...they kept the old bathtub, toilet, thin windows (and Central Expressway is noisy 24/7 and every room is affected), and basic shell of the rooms...slapped on paint and installed ugly carpet. The shower head sprays when trying to run a bath. The drain plug doesn't seal completely which drains your bath water during your bath. The ceiling in the room was peeling badly! See photo. There is no place to set your luggage...no hooks to hang a bathrobe...tiny sink in a wasted larger space...two full sized beds when there was plenty of room for two queen beds. Basic noisy window A/C. It all adds up to yucky. And this is one of their best rooms??? Wait staff in restaurant was efficient but poorly trained in communication skills, leaving us feeling uncomfortable. Food was surprising good and affordable! Swimming pools were small and uninviting. No pool towels offered. The continuing renovation work is disturbing. The 10,000 points is the only reason to come here. If all IHG hotels were like this we wouldn't be a rewards member, much less Spire Elite! Shame on you Holiday Inn!More</t>
   </si>
   <si>
+    <t>PlatinumAtMultiple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r372585394-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -769,6 +847,9 @@
     <t>I would not have stayed here had I known.  The price was ridiculous.  I can see where they are going with the updates in the lobby and the outside, but the room I was placed in was only partially updated.  The bath area was updated and everything else was what you might expect from a cheap roadside no-tell motel. Scratched and dented furniture, warped walls, bed so bad that you could see the springs popping up high enough from the mattress to make the comforter on the bed look like it was bubble wrap.  They have so many containers for their construction several of us could not park. A couple of us went in to complain at the desk and when we did, we were told just to go ahead and park in the loop under the cover.  Others actually had to park in the neighborhood behind the hotel and walk over, which by the way, every door was sealed except the front entrance.  At one point, I thought a train was passing by, but it was just the sound of water rushing through the pipes from the room above me.  I definitely will not be back to this hotel.More</t>
   </si>
   <si>
+    <t>Guy R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r372301498-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -784,6 +865,9 @@
     <t xml:space="preserve">Recently renovated. Lobby looks nice and clean,  room has improved significantly from last time,  still very small sink area and no place to put your luggage, shower pressure could be improved but over all nice experience.  The Bed is extremely comfortable.  Hotel staff very friendly and helpful </t>
   </si>
   <si>
+    <t>semma2007</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r364557733-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -811,6 +895,9 @@
     <t>The hotel is under renovation, and I hope it leads to better rooms and overall appearance. Right now it's very 70's...On the plus side:Staff very friendly and helpful. (Could use more staff at peak times.)I had a problem with tub not draining, and reported it. Maintenance took care of it right away.Exercise room much better then most hotels.On the minus side:Sink area is too small. No room for toiletries.Desk area lighting. One LED task lamp. Don't plan on laying out your papers and being able to see them. Internet keeps dropping. (On 6th Floor at least) It makes me log in several times and constantly drops. Very annoying when you are trying get work done. (It was solid in lobby...)Parking. One third of spaces are used by construction containers for renovation. One third by contractors doing the renovations. All the spaces on the right side used by employees of the car dealership next door. It's fine as long as you park after contractors and car employees leave.Bar/Breakfast area has the appeal of a DMV waiting room. I hope it's part of renovations to come.Overall not a bad hotel, but could be a lot better.More</t>
   </si>
   <si>
+    <t>swadmin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r364487142-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -835,6 +922,9 @@
     <t>Be aware that if you use points to stay, breakfast is not included. The restaurant is outsourced to a family. They change $15 for "breakfast buffet". But there really is no buffet except for a waffle machine for customers to help themselves. You have to ask for everything, from orange juice to bread. If you're lucky, they will bring what you ask after two or three times.The hotel is rather old and not very clean. We stayed there because it's close to the UTD campus. Won't stay again.More</t>
   </si>
   <si>
+    <t>ScottDJones</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r363367276-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -859,6 +949,9 @@
     <t>We made reservations well in advance of our stay. When we arrived at 5:30pm the room was not ready. We were told it would be 10 minutes. It sounded odd to us that a hotel room would still need cleaning six and a half hours after the posted checkout time. 10 minutes wasn't a big deal so we went to park the car and unload our things. Parking is scarce. We soon learned it was due to the booked events they host in the lobby meeting rooms and the construction on the hotel itself. Having used up the 10 minutes circling the parking lot looking for a parking space, we headed on up to the room. Apparently they have not made it to the 3rd floor with their remodel efforts yet. We step off the elevator in to the year 1994. Down at the far end of the hall I see the maid cart. We get down there and sure enough our room is not even close to ready. We pulled all of our luggage back down to the lobby and waited. Boy did we wait! I went up and checked every 15 minutes or so. Every time I looked in, there did not seem to be any progress. After 45 minutes I finally went over and asked the lady who checked us in how much longer they expected us to wait in the lobby. She radioed up and asked...We made reservations well in advance of our stay. When we arrived at 5:30pm the room was not ready. We were told it would be 10 minutes. It sounded odd to us that a hotel room would still need cleaning six and a half hours after the posted checkout time. 10 minutes wasn't a big deal so we went to park the car and unload our things. Parking is scarce. We soon learned it was due to the booked events they host in the lobby meeting rooms and the construction on the hotel itself. Having used up the 10 minutes circling the parking lot looking for a parking space, we headed on up to the room. Apparently they have not made it to the 3rd floor with their remodel efforts yet. We step off the elevator in to the year 1994. Down at the far end of the hall I see the maid cart. We get down there and sure enough our room is not even close to ready. We pulled all of our luggage back down to the lobby and waited. Boy did we wait! I went up and checked every 15 minutes or so. Every time I looked in, there did not seem to be any progress. After 45 minutes I finally went over and asked the lady who checked us in how much longer they expected us to wait in the lobby. She radioed up and asked the housekeeper how much longer and he told her "10 minutes". That must be his stock answer for everything. 15 minutes later we were told we could head up to our room. The desk clerk gave us two vouchers for breakfast for waiting in the lobby FOR AN HOUR. She was friendly, but no one made any effort to check on us while we waited. No offer of drinks from the bar or cokes for the kids. Nothing. We were in plain sight less than 15 feet from the lobby desk. Two clerks stood there for over 45 minutes and no one thought to check on us or prompt housekeeping until I asked them to. When we finally made it to our room and it looked like someone hastily threw a set of sheets on the bed. The rest of the room was just a room. I do not know what that guy was doing in there for an hour but it was NOT cleaning. How long does it take to put crumpled wrinkled sheets on two beds and vacuum the floor? For that guy it takes an hour. I would like to back up to the parking and conference area situation. The parking lot is completely monopolized by construction materials and trailers and the people using the conference area. Some of the construction materials look like they have been sitting outdoors for quite some time. Waterlogged boxes and countertops just stacked in the parking lot. While I understand that hotels rent out event space and conference areas to make money I don't think it should inconvenience the hotel guests.  While we were stuck in the lobby for an hour, 50 people must have come in toting yoga mats and rugs. They must have been having a large scale yoga class or some sort of prayer meeting in one of the large meeting rooms. We never did figure that out. It wasn't really any of our business anyway. The people and their event weren't really the problem. They were orderly and polite. The only reason I bring it up is because of the parking situation. We had to circle the lot numerous times waiting for one of the construction workers or someone else to leave so we could get in. Which at the time I thought was a big deal. Little did I know I would be in the lobby for AN HOUR. The indoor pool was nice but was quickly overrun with loud teens who were screaming at the top of their lungs. Literally screaming. Not just talking loud and having a good time. They were literally having a screaming match of some sort.  My wife told the front desk and no one ever came to the pool area to check. We were booked for two nights but wound up leaving early. The rooms are old, housekeeping is slow, and they would apparently prefer to be a convention/conference center. Someone needs to step in and take control of the remodel effort. It appears shoddy, slow, and out of hand. We will never stay at this particular Holiday Inn again and it has made me hesitant to book any other Holiday Inns.More</t>
   </si>
   <si>
+    <t>Cody B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r362422022-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -883,6 +976,9 @@
     <t>The Front desk staff was really nice an helpful. Bar needs someone that knows what they are doing. Hoping the remodel will clean it up otherwise I won't be choosing this hotel again until after the remodel.More</t>
   </si>
   <si>
+    <t>Drtamaragrosz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r361034103-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -898,6 +994,9 @@
     <t>Really impressed by the overall front desk staff especially O! Jesus was excellent at breakfast on our first day but Juan seemed overwhelmed on day two. Double beds should be queens and the sink area is ridiculously small for a family. New renovations are bright but look like designed in the 1970s. Pool area is lovely.</t>
   </si>
   <si>
+    <t>Patrick K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r359059980-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -925,6 +1024,9 @@
     <t>Right on the highway but surprisingly quite. Rooms need some updating for sure as do the halls, walls, and grounds. The looby looks to be the only thing recently "freshened up" but the staff makes up for  any short comings. Friendly, fast and accommodating. Would probably stay somewhere else next time until they remodel.More</t>
   </si>
   <si>
+    <t>shawn m</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r358878852-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -949,6 +1051,9 @@
     <t>The hotel is in a great location, and the staff is  friendly and accommodating. However, the hotel is going through a renovation, and I had issues with my room. I am willing to stay there again but ONLY AFTER they have completed the renovations. More</t>
   </si>
   <si>
+    <t>Pam R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r354989406-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -967,6 +1072,9 @@
     <t>As a IHG employee I do not get to get away for often but this time I had a death in my family. I originally was going to stay at Candelwood only for the kitchenette. Im glad that they had such a bad attitude about my reservation. I could not have asked for better. This Holiday Inn at Richardson has Staff that goes the extra step and always speaks when walking in or out. The food in the restaurant was CRAZY GOOD! I was stay for a funeral this time. But note, "this time", I will go back to just visit the area. Maggie I hope you are working on my next return cause You are the Best!!!!More</t>
   </si>
   <si>
+    <t>tracyj501</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r353430925-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1009,6 +1117,9 @@
     <t>This hotel is in a great location off of Central Expressway/US 75 and is close to restaurants and retail establishments.  My last trip, the hotel was beginning its remodel.  This time, a year later, it is still undergoing renovation, but from what I've seen, it is transforming from a dark and dated hotel to a bright and modern hotel.  The lobby is now very bright with casual sitting areas and a nice, open restaurant/bar area.  Some areas in the hotel are still in need of updates - my room was clearly not renovated at this time on the third floor with older, dark furniture.  The room was clean, the TV worked well.  The internet is still hit and miss.  You can long on to one of many hotspots, but I often lost connection or the connection was extremely slow.  Very frustrating for the business traveler.  Another frustration is the complete lack of power outlets.  The only available outlet was under the desk.  The side tables at the bed had no place to plug in my iPhone or any other device. The HVAC system was loud, but kept the room at a comfortable temperature.  There is a coffee maker, but no microwave or microfridge - something you find in any hotel now.  The hotel provides a news paper in the lobby. Austin's Grill is a good place to eat breakfast - from a small continental breakfast, to a made to order...This hotel is in a great location off of Central Expressway/US 75 and is close to restaurants and retail establishments.  My last trip, the hotel was beginning its remodel.  This time, a year later, it is still undergoing renovation, but from what I've seen, it is transforming from a dark and dated hotel to a bright and modern hotel.  The lobby is now very bright with casual sitting areas and a nice, open restaurant/bar area.  Some areas in the hotel are still in need of updates - my room was clearly not renovated at this time on the third floor with older, dark furniture.  The room was clean, the TV worked well.  The internet is still hit and miss.  You can long on to one of many hotspots, but I often lost connection or the connection was extremely slow.  Very frustrating for the business traveler.  Another frustration is the complete lack of power outlets.  The only available outlet was under the desk.  The side tables at the bed had no place to plug in my iPhone or any other device. The HVAC system was loud, but kept the room at a comfortable temperature.  There is a coffee maker, but no microwave or microfridge - something you find in any hotel now.  The hotel provides a news paper in the lobby. Austin's Grill is a good place to eat breakfast - from a small continental breakfast, to a made to order omelet to a selection from the menu.  The biggest asset of this hotel is its staff.  All very friendly, all smiling and helpful. The grounds are very clean and relatively well lit.   All rooms and the hallways need to be remodeled fast!More</t>
   </si>
   <si>
+    <t>Showchoirdad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r348045343-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1027,6 +1138,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>Tino R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r345198472-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1051,6 +1165,9 @@
     <t>If you are traveling for business in the Richardson area of Dallas this Holiday Inn is conveniently located with reasonable prices. The lobby is renovated, the staff is attentive, friendly, and prompt. The rooms are somewhat dated, but clean.More</t>
   </si>
   <si>
+    <t>BangkokSachse</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r336664613-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1213,9 @@
     <t>Under renovation, but rooms were not great! No fridge, no safe. We were in a handicapped accessible room, but not sure it would've been accommodating for one in a wheel-chair. Breakfast was not included with our room, but were charged 2 different prices for the exact same continental breakfast.  May try a new place next year for OU/Texas weekend!More</t>
   </si>
   <si>
+    <t>JKGtravelguru</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r317892373-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1114,6 +1234,9 @@
     <t>Renovating! Didn't realize that breakfast was NOT included until I received a bill for approximately $10.  The restaurant was clean &amp; the food Es reasonably priced. It is an older property but they are trying to refurbish. Staff was very polite &amp;wanderers all questions in a very professional manner. Rooms are rooms are small More</t>
   </si>
   <si>
+    <t>bxb4784f</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r316161330-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1138,6 +1261,9 @@
     <t>Stayed here for business as part of a trial for my company as they are accepting bids for a new hotel for trainees.  It's obvious that this location may have bitten off a bit more than they can chew in trying to court our company.  When entering the hotel, there is extensive construction and renovations being done.  The outer grounds are well maintained and clean, and parking seemed ample.  The inside however is in complete disarray with workers, tape, areas closed off, and wet paint.  Check in staff was friendly, but desk agent could not direct me to my room as he did not know where it was.  Another rep had to call after me as I walked away to tell me where it was.  I was then greeted in the hall by workers who didn't seem to care I was a guest checking in and made me feel like I was in the way.  Plus, the hall my company was checking into was still being worked on, and most (if not all) doors to the rooms did not close properly due to being hung incorrectly.  Slamming them hard was their only advice.  Plus, for "new" rooms, there were many flaws likely resulting from trying to fix rooms in a hurried manner.  (beat up bathroom doors just painted over quickly, new shower pans with gouges cut into them, light switches dented, and stand up closets with misaligned doors) WIFI was...Stayed here for business as part of a trial for my company as they are accepting bids for a new hotel for trainees.  It's obvious that this location may have bitten off a bit more than they can chew in trying to court our company.  When entering the hotel, there is extensive construction and renovations being done.  The outer grounds are well maintained and clean, and parking seemed ample.  The inside however is in complete disarray with workers, tape, areas closed off, and wet paint.  Check in staff was friendly, but desk agent could not direct me to my room as he did not know where it was.  Another rep had to call after me as I walked away to tell me where it was.  I was then greeted in the hall by workers who didn't seem to care I was a guest checking in and made me feel like I was in the way.  Plus, the hall my company was checking into was still being worked on, and most (if not all) doors to the rooms did not close properly due to being hung incorrectly.  Slamming them hard was their only advice.  Plus, for "new" rooms, there were many flaws likely resulting from trying to fix rooms in a hurried manner.  (beat up bathroom doors just painted over quickly, new shower pans with gouges cut into them, light switches dented, and stand up closets with misaligned doors) WIFI was hit or miss, and needs to have a boost.  Also, my shower did not drain properly, and several other guests reported the same issue.  Sleep quality is effected by the large gap under the door which lets in light and sound, plus rooms on the same side as the patio catch all conversations by guests staying up well past midnight. (shouldn't hotel security move these guests along?) The staff did their best to help out, offering a free drink our first night and offered excellent service any time they encountered us.  Bar staff was extremely attentive and the food quality at breakfast and dinner was excellent as well.  Check out was efficient and equally friendly.  They really went above and beyond to try to make our stay better,  and their service seemed sincere and genuine.  This can be a nice place to stay in the future, but I would wait until they get all the work completed and quality checked before staying here.  The staff really seems to have the right attitude and direction though, and it's hard to imagine they can't be successful with the right maintenance crews.More</t>
   </si>
   <si>
+    <t>Hardy H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r290886979-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1165,6 +1291,9 @@
     <t>i still cant believe this place is still open small terrible beds old guess it was under construction shouldve been listed on the website i was suppose to stay there 4days i only spent 2hrs in my room and checked out and went to another oneMore</t>
   </si>
   <si>
+    <t>Chandra R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r290245368-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1189,6 +1318,9 @@
     <t>We checked into this hotel on 7/15 late night using our IHG rewards and since we wanted to stay close to UT Dallas (we were going for his orientation program next day morning for under grad). The check in was smooth - no complaints. We were given room# 614. The room looked old (I am pretty sure this is an old hotel and needs an upgrade). They do not offer complimentary breakfast. We forgot one of bags when we checked out next day morning and that's where our problem started. I called to enquire about the same and was directed to a voice mail. No one returned my call. We went back to the Hotel next day evening and was told that there was no one in the Lost and Found since they leave at 5 pm. I called again next day morning and after being redirected and put on hold for several minutes spoke to a lady in Housekeeping. She said they do not show anything in their records but said she will check with the front desk as well. She took down my name and call back number and said she will call me back - and never did. We were so frustrated that we decided to give up and drove back to Houston without the bag. Never thought this would become such an ordeal.More</t>
   </si>
   <si>
+    <t>T_Hash_VA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r260413437-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1216,6 +1348,9 @@
     <t>I've stayed at this hotel for four weeks in the past three months.  It's an older Holiday Inn and some of the decor reflects that.  The pool and restaurant are being renovated, so the restaurant seating and bar have been set up temporarily in part of the lobby area.  It may not be ideal, but it works just fine as a temporary solution.  In my four weeks there, I have interacted with probably every member of the front desk, restaurant, and bar staff, and they have all been extremely friendly and helpful.  Kudos to all the staff!  All of my rooms have been on the second floor.  While the rooms may not be ultra-fancy, they have always been very clean, comfortable, and quiet.  Everything in my rooms has worked just as it should.  Wifi always seemed strong and fast enough for my needs.  One thing to note:  While the renovations are going on, the clothes washers &amp; dryers for guests are unavailable.  I'm sure that'll be sorted out once the renovating is finished.  Will I return?  Absolutely.More</t>
   </si>
   <si>
+    <t>BChicago</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r257371791-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1240,6 +1375,9 @@
     <t>We got snowed in DFW and it was the only hotel available for miles. For $120, I would've expected something newer and nicer from Holiday Inn Express on the executive level. The room look dated, dingy, and worn. The bed was a little hard and bedding not welcoming. I did not try the wi-fi. The pool and one of the restaurants was closed for maintenance. The front desk staff was courteous and the breakfast buffet was ok for $11.95 (although free would've been better). Overall, I'm sure there are tons of nice hotels for the same price or better in the area.More</t>
   </si>
   <si>
+    <t>TravWiz D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r256922386-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1261,6 +1399,9 @@
     <t>Please be aware this hotel is currently undergoing renovations. The workout facility and pool were not available and my room was definitely dated. Also, it sounded as though my bedroom window was open as you could here the freeway traffic throughout the night. The lobby was very appealing and the front desk staff was friendly. I'm sure this will be a great business hotel was the renovations are finished but I will stay away until finished.More</t>
   </si>
   <si>
+    <t>brent6482003</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r256399219-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1279,6 +1420,9 @@
     <t>When my GF got to the executive suite on 6 th floor there was pee on the toilet, the pillows were very hard, bed is uncomfortable. Not a very large room to be called a suite! Value of hotel is way over PRICED! Lots of better hotels in area only stayed here because of a all day conference!More</t>
   </si>
   <si>
+    <t>sugarlandok</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r255524522-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1303,6 +1447,9 @@
     <t>Stayed at the hotel for business.  Older hotel great night staff daytime staff needs help.  Front desk-Ashley I don't think she likes her job sits behind a wall and answers my questions I must have bothered her when I needed to be taken to my meeting she sighed put down her food and stomp over to radio someone to take me.  When I returned a few hours later she was out front smoking and rolled her eyes at me.  Will not return due to this employee,More</t>
   </si>
   <si>
+    <t>1_Bound_to_Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r253846819-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1327,6 +1474,9 @@
     <t>Had a room on executive floor. A king room.   Room was clean and spacious.  They are revamping the property so if this is a room that hasnt been done. I am impressed.   It was in great shape.   So I am sure the remodeled rooms will be awesome More</t>
   </si>
   <si>
+    <t>leahtots</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r250402759-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1381,6 +1531,9 @@
     <t>This hotel is a very clean establishment - from the grounds to the interior.  There is construction going on so the indoor pool is currently closed.  There are other upgrades going on as well which are not really an inconvenience.  Staff is very friendly from check-in to check-out.  The decor on the second floor, to me, is somewhat dated (fixtures, dark colors and patterns, older furniture).  It reminds me of 20 years ago (see photos) - perhaps they haven't upgraded this area of the hotel yet?  It is much darker than your modern day hotels.  The bedside tables also had no plugs adjacent to them or on the light fixtures - which is a need for me to have my smart phone charging by my side.  The internet speed in the room was very fast and consistent - great for business.  The room was very quiet. The fitness center is in a room while the fitness center is being upgraded.  The restaurant and "bar" area is in a strange place which sits behind a fence in the lobby area.More</t>
   </si>
   <si>
+    <t>redraiderkimbo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r245999878-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1405,6 +1558,9 @@
     <t>At check-in the lobby was taken over for an event. Literally all of the front parking was taken up by the attendees of the event, including the temporary parking for check in. We could not move for twenty minutes while they found someone to move a car in front of us and one behind us. Cords were left lying across the lobby and people littered the small walkways left through the lobby and we felt that we were invading someone's wedding just by trying to check in. At 1am the surrounding rooms decided to have what sounded like a family reunion in the hallway, slamming a door every five minutes and yelling expletives at each other. We called down to the front desk who stated that he would send security, which showed up 45 minutes later. This hotel has been our choice when visiting family for twelve years, but this will be our last stay. I would expect this type of problems at your local roadside drive in motel, but not a holiday inn that at one time deemed itself as "select." It is obvious that this place makes its money off of events and the hotel is secondary to that business. More</t>
   </si>
   <si>
+    <t>HotelDude</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r242780276-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1454,6 +1610,9 @@
   </si>
   <si>
     <t>6th floor only accessible by room key and the only difference was a small fridge and a safe. Seemed clean enough, but rooms are somewhat dated. Excellent guest services, however.  Loved the atmosogere fir OU/Texas weekend, but ghiuhht there would be more goings on. Will probabky stsy again!More</t>
+  </si>
+  <si>
+    <t>D T</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r231188429-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
@@ -1485,6 +1644,9 @@
 The bed was comfortable enough, but I was disappointed that there weren't any easily-accessible plugs next to the bed.  The two plugs that were under the headboard were used by the lamp and clock, so not available if you needed both of those.  Thirty years ago or more when this property was...I had higher expectations of this property based on other Holiday Inns and HIX's I've stayed at, but this property was disappointing.  The lobby area isn't too bad, and the desk clerk was friendly enough,  but once I got up to the "executive" floor, I found a long dimly-lit hallway.  There are lights by each door for security, but overall  it's not very well lit.  The carpet probably hasn't been replaced since the 90's and it shows.  Upon entering my room, I found a very narrow entryway and a room with similar dated furniture.  I know there are plans to renovate the entire property soon, but it should have been done earlier than now.  The desk chair was comfortable enough and the desk  was plenty big enough.  The LCD TV was average quality, but there was a decent channel selection.  Internet speed was definitely an issue, too.  I was getting upload speeds of just over 1 mbps. on the in-house network.  However, since my room faced the car dealership next door, I was able to connect to their guest network and get download speeds of around 6 mbps.  The bed was comfortable enough, but I was disappointed that there weren't any easily-accessible plugs next to the bed.  The two plugs that were under the headboard were used by the lamp and clock, so not available if you needed both of those.  Thirty years ago or more when this property was built, having bedside plugs probably wasn't as necessary as it is now, but in this modern age of smart phones, tablets, and CPAP machines, I sure hope they find a way to put plugs near the bed.  The sink area is cramped in the bathroom, but the adjacent toilet/shower/tub room is big enough.  The dark tile in that room seems out of place though with the rest of the decor.   Shower pressure and water temperature were good.  My rate included breakfast, but don't expect much here. I've had better biscuits/gravy, and eggs in school cafeterias.  All in all, this won't be a property I return to.  The Doubletree Richardson hotel just 5-6 blocks north of this property is better choice with similar rates.More</t>
   </si>
   <si>
+    <t>TeresaWyckoff</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r226355890-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1512,6 +1674,9 @@
     <t>This was a really comfortable hotel, that looks like it has been recently renovated. Actually, they had the plans laid out for further renovation they are doing. However, nothing was invasive and it all looked great in it's current state, to me. Everyone we talked to at the front desk was really friendly, and super helpful. Their service really stands out! The internet worked AMAZING, and was very fast. This isn't always the case in a hotel of this size. Parking was also convenient and the location was an easy drive to everywhere we needed to go, while we were in town. It's also right off the freeway, so it would also be a good place to stay if you're traveling though. The room was great: bed was super cozy, had a nice flat screen TV with good channels, and we were happy that it had a microwave and fridge. It was a great place to stay, and we will definitely stay here again when we're in the area.More</t>
   </si>
   <si>
+    <t>Gerald C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r224393134-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1536,6 +1701,9 @@
     <t>Stayed here during our visit to the Bush presidential museum and the President Kennedy shooting site. The room was clean the bathroom was nice and clean and the bed was comfortable. The free wifi worked well and plenty of free parking, no free breakfast here. The location was good just a little north of the city. We would stay here again.More</t>
   </si>
   <si>
+    <t>Karl A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r224128287-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1557,6 +1725,9 @@
     <t>We have stayed here more than a dozen times over the last three years. It's close to UT Dallas where our daughter attends college. We have always had good customer service. The staff if friendly and accommodating. We have probably had rooms on every floor of the hotel and we have never had an issue. The rooms have always been clean with comfortable beds. More</t>
   </si>
   <si>
+    <t>VicandFawn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r223478354-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1575,6 +1746,9 @@
     <t>For what I paid on priceline, it was worth the cost.Front desk service was quick &amp; friendly.The hotel is outdated and needs some TLC like the other TA posts write. The rooms are average &amp; should get remodeled. The bed was comfortable so there's a plus. Overall it was clean. More</t>
   </si>
   <si>
+    <t>Archer01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r221982704-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1599,6 +1773,9 @@
     <t>I've stayed here several weeks this year and I come back for 1 reason. The customer service. Mike and the rest of the team are very attentive to my needs. They sign for packages and set me up with rooms on the 6th floor which apparrently are in better shape than some others. They have a big remodel planned so after that maybe they will rate a 5, at least from me.More</t>
   </si>
   <si>
+    <t>SusanBum1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r217299276-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1626,6 +1803,9 @@
     <t>We booked a room (409) for one night.  I had to be up early the next morning for a medical procedure.  THis holiday inn was very ill kept.  Housekeeping is bad.  Our room had splatters on the walls that obviously were missed by housekeeping for awhile, the shower area ceiling has black mold all over, with nails sticking out of ceiling, the toilet seat had a large cigarette burn (non-smoking room), there was molding missing from the sink area, all in all, it was not a very clean room.  My sister and her husband also stayed the one night, and had to switch rooms 3 times in one night due to dirtiness and other issues in each room.  They will write their own review.  WHen we went to check out the indoor and outdoor pool, both looked dirty and unkept.  No one was in either pool.  I was very disappointed with this stay and will never recommend it to anyone.More</t>
   </si>
   <si>
+    <t>Deborah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r216466311-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1650,6 +1830,9 @@
     <t>Stayed here for a four-day conference. The staff is A-one; very helpful, professional, courteous, and hospitable. The rooms on the other hand are in desperate need of a make-over; very dated decor and the tub drain was slow to empty, wall cracks near the window. A remodel is planned for later this year. There are design plans and textile swatches on display in the lobby. I would be willing to try them again after the remodel. My a/c worked perfectly but was a bit loud; room was well ventilated and clean. TV quality was great. Free wifi tipped the scales to overall acceptable.More</t>
   </si>
   <si>
+    <t>DollClark</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r211200824-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1674,6 +1857,9 @@
     <t>We stayed here for a family event close by. The lobby seemed updated, but the rooms were in desperate need of TLC!  All the plumbing needed work...drains were slow and the toilet needed to be held down for a good 30 seconds to flush completely. The hallways have NO air which means they are HOT!  The floors in the room seemed damp, not sure why!  The staff was rude and unhelpful. The crib for my baby was filthy...thank goodness I had sense to wipe it down before I put her in it (most hotels today have pack and plays with the covers that can be washed...haven't seen a crib in some time!). The restaurant was not good. Buffet style...and then they charged me for kids when they were suppose to be free...I guess anything to get a buck!  Overall, I would never stay her again!  It's really a two star on three stars clothing...so disappointed!More</t>
   </si>
   <si>
+    <t>Accountsgirluk</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r210370445-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1698,6 +1884,9 @@
     <t>I stayed here on a business trip 8-13 June and it met my needs perfectly. The room was spacious and clean with good facilities. The staff were excellent, nothing was too much trouble for them. Our breakfast waitress, Betsy, deserves a particular mention - greeted with a smile every morning, helpful and polite. It was a great start to the day.Breakfast selection was good with both cooked and continental options. I'd definitely stay here again.More</t>
   </si>
   <si>
+    <t>AGM-222</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r204209127-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1725,6 +1914,9 @@
     <t>My husband and I stay at Holiday Inn's because the quality is consistent and it's modernized. I totally regretted ever saying that because not this Holiday Inn! The room was dingy and still stuck in the 80's! The furniture, wall paper, curtains, pictures on the wall, bathroom sink, cabinets, bathroom tile, and rug were all 80's decor! I'm actually shocked that the decor/facility hasn't been remodeled already. We used the pool and again, the entire pool area/gym was 80's style. The pool was decent size and entertained my daughter but there was hair clumped to the pipes coming out of the dolphin fountain. Breakfast buffet was also decent but not worth $14 if it didn't come with the room price. Area surrounding the hotel was okay and there was always parking. I would not stay again because I like modern hotels. If you want to relive the 80's, maybe watch Knight Rider while eating a t.v. dinner, then this is the place for you!!!!More</t>
   </si>
   <si>
+    <t>Ian B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r201603938-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1749,6 +1941,9 @@
     <t>I have stayed in this hotel a number of times in the last 12 months and find it provides what I need at a reasonable cost. The gym is small with just two running machines but I have always had access to one when I wanted. The pool is also small and not a major attraction.I find the hotel quiet and comfortable for business visits and provides what I need.More</t>
   </si>
   <si>
+    <t>lwill2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r199796448-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1800,6 +1995,9 @@
     <t>We went there to see our Uncle in the Hospital. The hotel was easy to access, clean and very comfortable sleeping/resting and quite. The staff was very helpful and accommodating. There's a Continental and a Full Breakfast buffet, and had a variety of items to choose from. Wait staff was very friendly and easy to get what you needed for your breakfast. The only thing the room was missing was a refrigerator. Enjoyed the stay and recommend.More</t>
   </si>
   <si>
+    <t>43220</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r196360118-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1821,6 +2019,9 @@
     <t>This is an older Holiday Inn, but fairly well maintained.   The rooms are clean, and the breakfast buffet is adequate.  The decor in the rooms is a very dated 1980's look, but seems to be in good repair.   Overall a good choice if you are doing business in Richardson as the location is good and are looking for a Priority Club hotel.  Staff is very friendly but slow - check in was backed up and I waited about ten minutes fairly late at night.   Otherwise, no major complaints.More</t>
   </si>
   <si>
+    <t>David G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r196352993-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1836,6 +2037,9 @@
     <t>Great staff, they go out of the way to help you. The rooms were very clean. We would not hesitate to use the Hotel next time we visit the Dallas area. The commute to the Dallas Convention center took only 20 MinutesMore</t>
   </si>
   <si>
+    <t>MUJTABA1967</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r193207966-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1857,6 +2061,9 @@
     <t>We went there to attend my sister in law newborn son party, party lasted till midnight and we decided to stay at hotel instead of driving back home. The staff in the night and morning are excellent and they are professionally trained in customer service. Room was clean and bed are comfortable, one the best thing for this hotel as they both outdoor and indoor pool, I used the indoor pool and the temperature was perfect. Very nice ambiance and top of that the breakfast is great, lot of variety for will take care of everyone needs. LOVE IT.Thank youMore</t>
   </si>
   <si>
+    <t>Mike B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r192622182-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1878,6 +2085,9 @@
     <t>Not a great Holiday Inn - certainly not up to standards.  This hotel is in need of an update.  The workout room was dated, the treadmill had to be from the 80s, if not older.  The hotel had my reservation, but they assigned the wrong IHG Rewards number to my account.  Clearly a lack of attention to detail.  Hotel needs to be refreshed.  My room door's chain lock was broken. More</t>
   </si>
   <si>
+    <t>rjhope9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r191068163-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1896,6 +2106,9 @@
     <t>I didnt have Ritz Carlton expectations coming in but knew this hotel would suffice. The location is convenient to where I was working and also is not far from Collins, where you can find a decent amount of places to eat while away on business. I definitely feel the breakfast was the strong point of the stay as the gym was average (low in cardio machines) and rooms were comfortable but non working lights switches and a bit of dirtyness made it become average. Would recommend for a quick stay that only requires a place to lay your head at night.More</t>
   </si>
   <si>
+    <t>Andy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r186907767-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1923,6 +2136,9 @@
     <t>I could give a 3.5 score, but not a 4.  The room was quiet and comfortable, with clean bathroom and bedding. There's a reasonably well equipped gym.  The hotel seemed to have lost their liquor licence, though they managed to rustle up some food and apologetically offered complimentary wine - so it would be churlish to complain.  The breakfast selection was poor, however - more like a HI Express offering.More</t>
   </si>
   <si>
+    <t>JSW17</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r181364350-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1950,6 +2166,9 @@
     <t>This hotel felt more like home. Wonderful associates and very clean rooms. I had an unfortunate situation of breaking my cell phone and anytime I needed a phone to reach family or work Amjad, the General Manager allowed me use of his office phone and even offered his personal cell. With the stress of this situation he eased my worries. Also Danny was the best. Always making sure I was taken care of from the time I checked in to the time I went home. I will definitely return.More</t>
   </si>
   <si>
+    <t>Cym20</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r181143444-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1974,6 +2193,9 @@
     <t>I made reservations for 6 couples in the middle of September for OU/TX weekend.  We have stayed at this hotel for 10 years...always pleased, recommending it to everyone. Upon arrival, we found that the king size rooms I had reserved were changed to double. We have two men well over 6 feet tall, and a double (not queen) was not acceptable.  I had the e-mail where the sales manager asked me if we were requesting king beds, and I responded "yes ma'am". They informed me that this could not be changed because no king beds were available, and the sales manager was not there.  I left her a note, but wasn't aware that she wouldn't be back until Monday!!  NOTHING was done to make this right.  We had breakfast for 2 people on both days.  If anything, I think that should have been comped for us.  I'm waiting for a response from the sales manager, but so far...NOTHING.  I just can't believe there wasn't ONE person in the office who could make this right for us. Frustrating at $121 per night!! We will not be going back to this hotel...nor will we be recommending it in the future.  On the plus side, the rooms were clean.More</t>
   </si>
   <si>
+    <t>nursejennings</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r180333685-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -1998,6 +2220,9 @@
     <t>The outside of the hotel looked nice, the lobby was nice. Things changed once we got into the elevator and on our floor. The hallway decor was old. The actual room is ugly. The furniture is run down, very disapointing for what the room costs regularly.  The bed and bedding were good . Comfortable and clean, not the ugly bedspreads some hotels have. We got a half priced deal , and the first thing my hubby said was " I'm glad we didn't pay full price, we would've gotten a refund and stayed somewhere else." My absolute biggest complaint is the odd sink outside of the bathroom. It's a joke. There is no lighting so forget doing your makeup. It's ridiculously small too. I keep looking for another lightswitch because it was so absurd. The coffe pot was a one cup that didn't work. No coffee was available in the lobby that we could see. My husband had to go to McDonald's for coffee. What hotel doesn't provide coffee in the morning? This one! Overall this hotel was a disappointment. I would not stay here again. Go somewhere that has free breakfast and coffee. The lobby and outside fool you.More</t>
   </si>
   <si>
+    <t>Bengy465</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r164699905-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2022,6 +2247,9 @@
     <t>We named our own price and got the room for $44 and its a pretty clean building. They have a pool inside and outside but we did not use them. The gym is nicer than other cheaper hotels I've stayed at. When we first checked in, we had a room with two twins, but the lady at the desk said she would switch us to a king room, which was nice since it was my boyfriend and I that were staying in a room together. She was very nice and happily switched us. The only thing I didn't really like is the be is not as comfortable as it looks and on the king bed you get 4 tiny pillows instead of king size. So it's hard to sleep on a tiny pillow when you are rolling in your sleep unless you line up all the pillows in a row. It was nice having free Internet. We did eat at this hotel but we drove to House Cafe which is only 6 minutes away and ate breakfast. They give you big portions for the price. All in all this is a good value for the price we paid. More</t>
   </si>
   <si>
+    <t>davidcstewart</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r164531927-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2049,6 +2277,9 @@
     <t>I reserved a standard room and neither the bedroom nor the bathroom were cramped. The wireless was good but at midnight on the first night of my stay, the wireless stopped working for myself and my many business associates for the evening. On the other side, I pointed out that the in-room coffee maker was broken in my room and the staff was very attentive to replacing it with a working one. The location is convenient, right next to the US75 highway, although this means that there are really no restaurant options within walking distance. This means that unless you drive someplace, you are stuck with the hotel restaurant, which isn't too bad, although the service was "relaxed." The breakfast buffet is a reasonable value with cook yourself waffles and cook-to-order eggs plus fruit, cold and hot cereal and a few other hot items. There is a Starbucks just down the road which is a major plus.More</t>
   </si>
   <si>
+    <t>AyanaMap</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r164447758-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2067,6 +2298,9 @@
     <t>I passed through the hotel for a week traveling for business and didn’t have any problems. Interaction with staff was minimal and was a neutral experience, neither good nor bad. The room was fine. I thought the placement of the sink was awkward and restricted movement but the separate room for the toilet and shower was spacious. The hotel grounds with the statues and decorations were different and nice. The hotel hallways were very hot but I’ve noticed that with other hotels in the area. For people who like to work out, their gym is one of the best I’ve seen in a hotel even without having free weights. I wouldn't pay full price for a room but with a discount or successful bid it is worth the money.More</t>
   </si>
   <si>
+    <t>tripjeffrey</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r160568008-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2094,6 +2328,9 @@
     <t>We stayed there with a group block.  They allowed a late arrival, and the person at the front desk was very friendly and helpful.  The room was spacious and modern.  The breakfast was good.  The kids really liked the brass animal replicas that are scattered around the property.More</t>
   </si>
   <si>
+    <t>steve375</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r157466103-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2121,6 +2358,9 @@
     <t>The room rates are good for the area. Average hotel with average service. If you are traveling for business you will find the Richmond Holiday Inn a good place to stay for the price. Nice breakfast buffet with a good selection for all tastes. The rooms are comfortable and clean. They have a shuttle service to get you and from area restaurants. If you choose to use the shuttle service be warned that it is unreliable. No eating establishments within close walking distance. If you do have any problems during your stay, the General Manager will make sure they are corrected and your stay will be pleasant. Overall a good value.More</t>
   </si>
   <si>
+    <t>6Daysontheroad</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r157016632-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2145,6 +2385,9 @@
     <t>I have been using this hotel for 5 years for business travel in the Plano / Richardson area of Dallas.Pros- friendly staff, room quality good, breakfast buffet - with omelett bar (free for gold priority and above), easy access to central Hwy (75). price $$$.Cons- ok dinner restaurant, lounge is just ok, (but other good restaurants nearby)More</t>
   </si>
   <si>
+    <t>GabrielR89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r156711619-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2172,6 +2415,9 @@
     <t>Based on previous reviews,my expectations for this hotel was very low. But, the price was excellent and it's location was very convenient for my business trip. However, I was pleasantly surprised upon arriving at the hotel. The lobby was nice. The staff was very friendly and accomadating. The rooms were quite comfortable. I was very impressed. I would stat here again without any hesitation. A job well done to the staff of this hotel.More</t>
   </si>
   <si>
+    <t>Monica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r152686941-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2199,6 +2445,9 @@
     <t>Booked for the first time with Travelocity.com We choose the Secret Location opition. A 3 star hotel is what we were looking for. We ended up with a room that was so outdated. The only thing that was remotely new was the LG flat screen TV. The Maroon colored carpet was at least 20 yrs old. The bathroom was covered in the Dark green title. The outlets were crooked. This room looked like it was put together with glue. The ice machine on the first floor where our room was. Never worked the 2 days we were there. I suffer from a disabilty and was attacked by Management the moment I entered the hotel with my service animal. This was by far the worst experience ever. If your disabled and have a service animal, this isn't the place for you. If your wanting a nice fresh place to relax in , then this isn't the place for you! I'm so sorry I tried Travelocity.com to book my hotel. I will stick to Priceline.com It's a wonder Travelocity.com kept this place a sercret..More</t>
   </si>
   <si>
+    <t>Kerri_Gr</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r152554398-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2223,6 +2472,9 @@
     <t>This was a super nice and clean hotel!  Great location.  Easy access to hwy., eating establishments close, restaurant in hotel good!  Free, hot, made to order breakfast!  Staff was very friendly. Nice workout room, no hot tub but both an indoor and outdoor pool.More</t>
   </si>
   <si>
+    <t>Robert B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r152539112-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2265,6 +2517,9 @@
     <t>Stayed at the Holiday Inn Dallas-Richardson during the last week of January 2013.The hotel is nice, the rooms are comfortable and clean.Bathroom tiles are black... have no idea why and it doesn't look too good but... not my problem.Breakfast is good and the hotel has free parking.The hotel is ~20 minutes drive from downtown Dallas when there is no traffic.More</t>
   </si>
   <si>
+    <t>OKJulie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r151457443-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2307,6 +2562,9 @@
     <t>A very standard, good quality hotel. Stayed there for three nights on business, and was overall very satisfied. The decor is quite outdated, but rooms and common ares are clean and maintained. I would mention the very good breakfast, with an omelette bar, not common to these level of hotels and was very nice in the mornings.More</t>
   </si>
   <si>
+    <t>Dale W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r146033879-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2349,6 +2607,9 @@
     <t>The hotel was a nice budget stay for the weekend - we booked through priceline. The bed was very comfortable, the staff was friendly and the pool area was nice. The location was good and easy to find. I appreciated the cleaniness of the rooms and the shower water was very hot, not lukewarm. We would stay again!More</t>
   </si>
   <si>
+    <t>georgeinputnam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r143219442-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2373,6 +2634,9 @@
     <t>This hotel has gone down in everything. Rooms are not as clean as they were; bar service is just basic - no enthusiasm. There are some stalwart employees who try (Betsy) but even the employees seem flat. I am disappointed as this was my favorite hotel on that area. More</t>
   </si>
   <si>
+    <t>Michael G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r140300992-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2400,6 +2664,9 @@
     <t>This is my first negative review on this site. I'm currently at a two-night stay at the hotel. When I checked in, the lobby was impressive. The rooms were not. My first room had a weird smell. The desk gave me a new room, but they coded my room key wrong. Frank confirmed the error and re-coded my room key to access the new room correctly. The new room was better, but still had an odd aroma. I have more time left here, and I find myself wishing that I was at the nearby DoubleTree or elsewhere.More</t>
   </si>
   <si>
+    <t>TXJOY</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r138050163-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2427,6 +2694,9 @@
     <t>Arrived to find out we had no reservation, the confirmation number was wrong/not enough digits.  (I called directly to the hotel to make our reservation).  The ice machine on the 4th floor did not work.  The hotel was having air troubles...very little cool air in lobby &amp; hallway floors.  Decor not bad. No luggage carts to use when checking out.   Breakfast food was great.  Bathroom area is too small, TV outdated.  Received no response from Holiday Inn online customer service on  recommendations.More</t>
   </si>
   <si>
+    <t>Linda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r137813752-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2445,6 +2715,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>AceOutlaw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r137226009-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2464,6 +2737,9 @@
   </si>
   <si>
     <t>We Pricelined a room for 2 nights.  When we got there, they only had us booked for one night, and told us we would have to check back in the morning.  Fine, OK, but I'd planned on sleeping late.We asked if they had an indoor or outdoor pool at the front desk after checking in because we wanted to swim the next day.  They had to think on it.  The answer is both, but the outdoor one is small.So I set the alarm and called the front desk the next morning.  The lady was very short with me as I tried to explain the situation.  Half-asleep, I tried to figure out what she was telling me on how they would bill me for the 2nd night.  Not friendly at all, even though I tried to be nice and I'm not a morning person.Coming back to the hotel for the 2nd night, we are tired and get to our room.  Well our key doesn't work, probably due to the front desk lady messing something up that morning.  So I have to go back to the front desk and get it reset.The room was clean and OK though.  Nothing special.  Not much parking for the number of guests, unless you want to park in the back where it's darker.  I'm usually not too picky, but I wouldn't stay here again if I had a choice.More</t>
+  </si>
+  <si>
+    <t>griff72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r137013795-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2492,6 +2768,9 @@
 This lead me to waiting a good 5 minutes...During my recent stay it struck me that the hotel business must be incredibly tough.  As I was nitpicking a few things in my mind I realized that the only issues I had is everything in the room was bland and "standard".  Nothing was particularly worn and indeed not much had changed since my last visit in April 2011.  How does one make a room sturdy, work friendly, comfortable, easy to clean AND stylish?  It has to be a tough job. This the title of my review.  You shouldn't check-in expecting to be wow'd by anything at the hotel. You should expect to feel comfortable in a clean room with functional equipment and furnishings. This hotel provides all of those with a slightly less than stellar approach to customer interactions. My one line review, aside from the title would be: If you get the right price and enjoy consistency, this is the hotel for you. Breakfast on the other hand was a different story.  Unless your rate comes with breakfast I highly encourage you to seek nourishment off-site.  The included breakfast is a standard buffet of "scrambled" eggs, breakfast meats changing by day, a daily feature, fruit, breads, cereals and danish. There is a "cooked to order" egg station that is hit or miss as the cook is also responsible for the back of house preparation of foods for the buffet. This lead me to waiting a good 5 minutes one day for the chef to start cooking my eventually overcooked omelette while I grabbed french toast which carbon dating would say predated man.  The reason is that no one was in the kitchen making fresh food while he was out front.  If you see a bunch of people in the egg line you can expect the rest of the buffet will be a bit dated.  If you see a fresh buffet you will be waiting for your personal chef to begin your request. Overall this wasn't a bad stay.  I can't even say it was lackluster.  The rooms are well kept and clean, just bland.  Probably perfect for the average business traveler.More</t>
   </si>
   <si>
+    <t>lakenyaf2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r136953174-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2507,6 +2786,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>mgwds1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r133322618-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2525,6 +2807,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>SilverSpringer</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r133034034-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2543,6 +2828,9 @@
     <t>We were in Richardson for a family reunion and the Holiday Inn Richardson was a great place to stay. The hotel was well-laid out with nice lobby and an indoor/outdoor pool as well as fitness center on the first floor. The indoor poll was well heated but it was a little shallow--about 4 feet--for me.  As a Priority Club platinum member, I received free breakfast coupons for our room and the other rooms I booked and we were placed on the "executive floor". I think the advantages of the executive floor were the high floor, bathrobe, and slightly larger room.  The breakfast was a buffet with made to order omelets. Front desk staff were very nice, making some recommendations for dinner. We had nice casual Tex-Mex meal at Tin Star and a meal with more Texas regional choices at Love and War in Texas.The key point to staying in the Dallas area is to stay near where you need to be as the distances via the freeways are quite large. While I would not go out of my way to stay in Richardson Holiday Inn, if the area, I would definitely recommend this as good quality, reasonably-priced choice..More</t>
   </si>
   <si>
+    <t>MellowTraveler_423</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r131022303-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2561,6 +2849,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>Andrea887710</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r126888297-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2588,6 +2879,9 @@
     <t>I stayed here last year for 4 days, on a business trip. Found my sheets to be slightly stained, didn't think much of it, called housekeeping and the next day they were clean. On the first night back home, I started itching all over, still didn't think anything of it, woke up that next morning covered in red bites, the itching was beyond. Talk about embarassing! Realizing I might have had a bedbug problem, called an exterminator and he confirmed I indeed had contracted bedbugs, and they were in my luggage. Needless to say after 3 attempts of this exterminator spraying to rid me of my problem $350, which only made my situation worse somehow, I had to call an EXPENSIVE heat treatment company that came in and finally saved my sanity, $1,500 later. I had to replace my bed, throw away some furniture, clothes. NIGHTMARE for 3 months! And the hotel was notified and did nothing to reimburse me or admit they had a bedbug problem!!!!!!!More</t>
   </si>
   <si>
+    <t>TorontoLLB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r118506999-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2606,6 +2900,9 @@
     <t>August 2011</t>
   </si>
   <si>
+    <t>Mur018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r117938350-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2627,6 +2924,9 @@
     <t>My wife and I stayed at this hotel for a relaxing night away from home. We were pleasantly supprised. It was clean, and had very attentive staff. This hotel has a very nice indoor- outdoor pool area. They have animal and bird carvings sitting all over, inside and out! Beautiful little dolphin fountain in the indoor pool. Room was clean and fairly new. Great shower head. Beautiful lobby. And beautiful restaurant lounge area. The buffet breakfast was average, hot, and plenty.    Only two con's for us. Why in the world would you spend that much money on a beautiful pool area, and not put a whirlpool in!!! I have to take quite a bit off for that. The other one is that the T.V.'s in the room are old and small. When we spend 16 bucks on a movie, we dont want to watch it on a small, old T.V.  But we would maybe stay here again, if needing to stay in this area again.More</t>
   </si>
   <si>
+    <t>morewesttexas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r117189536-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2642,6 +2942,9 @@
     <t>great location,  good price, the kids loved the indoor and outdoor pools, restaurant...blah</t>
   </si>
   <si>
+    <t>Mahesh M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r115966599-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2660,6 +2963,9 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>Slackbladder</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r114724690-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2681,6 +2987,9 @@
     <t>Stayed here for 7 nights on business. The place needs a good refurbishment and a bit more professional attitude.Front desk staff were friendly and accommodating.Staff in bar/restaurant were a mixed bag. Grumbles about tips.Bar shuts at 9.30 everyday. Restaurant is next to empty. Could do so much more with it.No atmosphere whatsover. Breakfast is an okay selection but nothing outstanding.Again normally empty. Hotel car park was full, so where were the guests.Rooms are Holiday inn standard. All okay but just needing an update. The bathroom in my room had been updated and was fine. But the rooms just a little 1980's. No wardrobe for instance. Location is great. Right on the US75 highway. Noise is not a problem as the hotel is at an angle and is well insulated. Couple doors down is a Humperdinks bar/restaurant which provides what the hotel should provide, ie ok food, a bar which opens late, and a bit of atmosphere. A short walk to W Campbell Street for assorted shops and food outlets (starbucks. macdonalds and a good selection of others).Holiday Inn need to up their game as there are plenty of other hotels just meters away. Doubletree Suites, Hampton Inn Suites and a new and modern Renaissance. All at similar prices.More</t>
   </si>
   <si>
+    <t>albelora</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r55689406-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2699,6 +3008,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>Texas_reader</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r51710403-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2720,6 +3032,9 @@
     <t>Whenever I travel on business to Richardson, I always stay at this hotel. I had not been at a Holiday Inn in over twenty years and was surprised at the high quality standards of the hotel. The rooms are always spacious and very clean. I especially enjoy the executive floors. The staff is wonderful. The housekeepers go out of their way to straighten and tidy my toiletries in the bathroom. Betsy in the dining room always remembers what kind of tea I like and serves it to me before I can ask for it. The front desk staff is also great. I don't even stay there that frequently, but I feel like I'm at my home away from home.More</t>
   </si>
   <si>
+    <t>DonCobb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r22223122-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2741,6 +3056,9 @@
     <t>I had to travel to Richardson, TX on business in November of '08.  I made reservations at the Holiday Inn Select, choosing this hotel because of its location and price.  Upon arrival check-in was smooth and quick and the room was very nice.  The in-hotel restaurant was good but as one might suspect a little pricey.  The only con to the stay was the absence of any type of breakfast in the morning save the in-room coffee.  One other minor point for me was the bedding.  The pillows provided were small and perfectly square which I did not like other than that the room was great, well kept and the internet service fast.  I would stay again.More</t>
   </si>
   <si>
+    <t>allyall</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r8023902-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
   </si>
   <si>
@@ -2757,6 +3075,9 @@
   </si>
   <si>
     <t>June 2007</t>
+  </si>
+  <si>
+    <t>bec060874</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r6629101-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
@@ -2823,6 +3144,9 @@
   </si>
   <si>
     <t>Parking was plentiful.  Check-in was fast and very courteous.  The lobby decor, although well maintained, looked a little dated.  Elevators were prompt throughout my stay.  The room was typical "no surprises" Holiday Inn, but the soundproofing was poor (with a 10-lane expressway directly outside) and the air conditioner was noisy.  The bed was comfortable, but the noise level was really bothersome.The dining room/bar could have used some new furniture.  At dinner, the lone waiter was very polite but was in a mad rush throughout the meal--apparently to ready the tables for breakfast before the restaurant closed for the evening.  The entrees, including vegetables, were tasty and filling, but the salad bar choices were unappetizing.  The breakfast bar wasn't very appetizing, either, and it took forever for the waitress to appear with coffee.More</t>
+  </si>
+  <si>
+    <t>A TripAdvisor Member</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56538-d99374-r566873-Holiday_Inn_Dallas_Richardson-Richardson_Texas.html</t>
@@ -3342,43 +3666,47 @@
       <c r="A2" t="n">
         <v>1040</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>154915</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -3394,56 +3722,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>1040</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>88192</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -3461,50 +3793,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>1040</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>13740</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -3522,50 +3858,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>1040</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>154916</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -3585,50 +3925,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>1040</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>154917</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -3646,56 +3990,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="X6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>1040</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>48923</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -3709,50 +4057,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>1040</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>154918</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -3768,56 +4120,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="X8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="Y8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>1040</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>154919</v>
+      </c>
+      <c r="C9" t="s">
+        <v>105</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K9" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" t="s">
+        <v>110</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>101</v>
       </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>94</v>
-      </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3831,50 +4187,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>1040</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>508</v>
+      </c>
+      <c r="C10" t="s">
+        <v>111</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="O10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -3888,50 +4248,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>1040</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>41162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>119</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K11" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="L11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -3943,56 +4307,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="X11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>1040</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>154920</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -4010,56 +4378,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="X12" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Y12" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>1040</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>154921</v>
+      </c>
+      <c r="C13" t="s">
+        <v>139</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="J13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P13" t="n">
         <v>4</v>
@@ -4079,50 +4451,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>1040</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>154922</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="J14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="K14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="L14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -4134,56 +4510,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="X14" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>1040</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>27885</v>
+      </c>
+      <c r="C15" t="s">
+        <v>156</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="O15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -4199,56 +4579,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="X15" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Y15" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>1040</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>154923</v>
+      </c>
+      <c r="C16" t="s">
+        <v>166</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -4268,50 +4652,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>1040</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>154924</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="J17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="L17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -4327,56 +4715,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="X17" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="Y17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>1040</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>154925</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="M18" t="n">
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O18" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P18" t="n">
         <v>1</v>
@@ -4394,56 +4786,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="X18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="Y18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>1040</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>154926</v>
+      </c>
+      <c r="C19" t="s">
+        <v>191</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -4459,56 +4855,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>1040</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>154927</v>
+      </c>
+      <c r="C20" t="s">
+        <v>200</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="K20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="L20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O20" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -4524,56 +4924,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="X20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="Y20" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>1040</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>154928</v>
+      </c>
+      <c r="C21" t="s">
+        <v>210</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="O21" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -4589,56 +4993,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="X21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
       <c r="Y21" t="s">
-        <v>198</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>1040</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>47624</v>
+      </c>
+      <c r="C22" t="s">
+        <v>219</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="O22" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -4650,56 +5058,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="X22" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="Y22" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>1040</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>154929</v>
+      </c>
+      <c r="C23" t="s">
+        <v>229</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="J23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="K23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="L23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
       </c>
       <c r="N23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -4715,56 +5127,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="X23" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="Y23" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>1040</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>28646</v>
+      </c>
+      <c r="C24" t="s">
+        <v>240</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="J24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="K24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -4778,50 +5194,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>1040</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>154930</v>
+      </c>
+      <c r="C25" t="s">
+        <v>247</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O25" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -4833,56 +5253,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="X25" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>1040</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>154931</v>
+      </c>
+      <c r="C26" t="s">
+        <v>256</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>261</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4894,56 +5318,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="X26" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="Y26" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>1040</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>154932</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="J27" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="K27" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="L27" t="s">
-        <v>241</v>
+        <v>267</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -4961,56 +5389,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>242</v>
+        <v>268</v>
       </c>
       <c r="X27" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="Y27" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>1040</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>25533</v>
+      </c>
+      <c r="C28" t="s">
+        <v>271</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="K28" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -5024,50 +5456,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>1040</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>154933</v>
+      </c>
+      <c r="C29" t="s">
+        <v>277</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>250</v>
+        <v>278</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>251</v>
+        <v>279</v>
       </c>
       <c r="J29" t="s">
-        <v>252</v>
+        <v>280</v>
       </c>
       <c r="K29" t="s">
-        <v>253</v>
+        <v>281</v>
       </c>
       <c r="L29" t="s">
-        <v>254</v>
+        <v>282</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="n">
@@ -5083,56 +5519,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>256</v>
+        <v>284</v>
       </c>
       <c r="X29" t="s">
-        <v>257</v>
+        <v>285</v>
       </c>
       <c r="Y29" t="s">
-        <v>258</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>1040</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>154934</v>
+      </c>
+      <c r="C30" t="s">
+        <v>287</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="J30" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="K30" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="L30" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O30" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -5144,56 +5584,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="X30" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="Y30" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>1040</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>154935</v>
+      </c>
+      <c r="C31" t="s">
+        <v>296</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>267</v>
+        <v>297</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="J31" t="s">
-        <v>269</v>
+        <v>299</v>
       </c>
       <c r="K31" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="L31" t="s">
-        <v>271</v>
+        <v>301</v>
       </c>
       <c r="M31" t="n">
         <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O31" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P31" t="n">
         <v>1</v>
@@ -5209,56 +5653,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="X31" t="s">
-        <v>273</v>
+        <v>303</v>
       </c>
       <c r="Y31" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>1040</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>82578</v>
+      </c>
+      <c r="C32" t="s">
+        <v>305</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>306</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>276</v>
+        <v>307</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>308</v>
       </c>
       <c r="K32" t="s">
-        <v>278</v>
+        <v>309</v>
       </c>
       <c r="L32" t="s">
-        <v>279</v>
+        <v>310</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>255</v>
+        <v>283</v>
       </c>
       <c r="O32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P32" t="n">
         <v>1</v>
@@ -5276,56 +5724,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>280</v>
+        <v>311</v>
       </c>
       <c r="X32" t="s">
-        <v>281</v>
+        <v>312</v>
       </c>
       <c r="Y32" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>1040</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>154936</v>
+      </c>
+      <c r="C33" t="s">
+        <v>314</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
+        <v>315</v>
+      </c>
+      <c r="G33" t="s">
+        <v>47</v>
+      </c>
+      <c r="H33" t="s">
+        <v>48</v>
+      </c>
+      <c r="I33" t="s">
+        <v>316</v>
+      </c>
+      <c r="J33" t="s">
+        <v>317</v>
+      </c>
+      <c r="K33" t="s">
+        <v>318</v>
+      </c>
+      <c r="L33" t="s">
+        <v>319</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
         <v>283</v>
       </c>
-      <c r="G33" t="s">
-        <v>46</v>
-      </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
-      <c r="I33" t="s">
-        <v>284</v>
-      </c>
-      <c r="J33" t="s">
-        <v>285</v>
-      </c>
-      <c r="K33" t="s">
-        <v>286</v>
-      </c>
-      <c r="L33" t="s">
-        <v>287</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>255</v>
-      </c>
       <c r="O33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -5339,50 +5791,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>319</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>1040</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>11711</v>
+      </c>
+      <c r="C34" t="s">
+        <v>320</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="J34" t="s">
-        <v>290</v>
+        <v>323</v>
       </c>
       <c r="K34" t="s">
-        <v>291</v>
+        <v>324</v>
       </c>
       <c r="L34" t="s">
-        <v>292</v>
+        <v>325</v>
       </c>
       <c r="M34" t="n">
         <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -5400,56 +5856,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="X34" t="s">
-        <v>295</v>
+        <v>328</v>
       </c>
       <c r="Y34" t="s">
-        <v>296</v>
+        <v>329</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>1040</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>33018</v>
+      </c>
+      <c r="C35" t="s">
+        <v>330</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>332</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="M35" t="n">
         <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O35" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -5461,56 +5921,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="X35" t="s">
-        <v>303</v>
+        <v>337</v>
       </c>
       <c r="Y35" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>1040</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>42690</v>
+      </c>
+      <c r="C36" t="s">
+        <v>339</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>343</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P36" t="n">
         <v>5</v>
@@ -5530,50 +5994,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>1040</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>154937</v>
+      </c>
+      <c r="C37" t="s">
+        <v>346</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O37" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -5585,56 +6053,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="X37" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="Y37" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>1040</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>154922</v>
+      </c>
+      <c r="C38" t="s">
+        <v>166</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="J38" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="K38" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="L38" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>326</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -5654,50 +6126,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>1040</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>154938</v>
+      </c>
+      <c r="C39" t="s">
+        <v>361</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -5711,50 +6187,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>1040</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>154939</v>
+      </c>
+      <c r="C40" t="s">
+        <v>368</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>331</v>
+        <v>369</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>332</v>
+        <v>370</v>
       </c>
       <c r="J40" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="K40" t="s">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="L40" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -5772,56 +6252,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="X40" t="s">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="Y40" t="s">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>1040</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>154940</v>
+      </c>
+      <c r="C41" t="s">
+        <v>377</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>339</v>
+        <v>378</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>340</v>
+        <v>379</v>
       </c>
       <c r="J41" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="K41" t="s">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="L41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="O41" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5839,50 +6323,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>343</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>1040</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>27885</v>
+      </c>
+      <c r="C42" t="s">
+        <v>156</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="J42" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="K42" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L42" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="M42" t="n">
         <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="O42" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5894,56 +6382,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="X42" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="Y42" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>1040</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>154941</v>
+      </c>
+      <c r="C43" t="s">
+        <v>393</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>354</v>
+        <v>394</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>355</v>
+        <v>395</v>
       </c>
       <c r="J43" t="s">
-        <v>356</v>
+        <v>396</v>
       </c>
       <c r="K43" t="s">
-        <v>357</v>
+        <v>397</v>
       </c>
       <c r="L43" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="M43" t="n">
         <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="O43" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5955,56 +6447,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="X43" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="Y43" t="s">
-        <v>359</v>
+        <v>399</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>1040</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>40864</v>
+      </c>
+      <c r="C44" t="s">
+        <v>400</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>360</v>
+        <v>401</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>361</v>
+        <v>402</v>
       </c>
       <c r="J44" t="s">
-        <v>362</v>
+        <v>403</v>
       </c>
       <c r="K44" t="s">
-        <v>363</v>
+        <v>404</v>
       </c>
       <c r="L44" t="s">
-        <v>364</v>
+        <v>405</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P44" t="s"/>
       <c r="Q44" t="n">
@@ -6022,56 +6518,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>365</v>
+        <v>406</v>
       </c>
       <c r="X44" t="s">
-        <v>366</v>
+        <v>407</v>
       </c>
       <c r="Y44" t="s">
-        <v>367</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>1040</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>154942</v>
+      </c>
+      <c r="C45" t="s">
+        <v>409</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>368</v>
+        <v>410</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>369</v>
+        <v>411</v>
       </c>
       <c r="J45" t="s">
-        <v>370</v>
+        <v>412</v>
       </c>
       <c r="K45" t="s">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s">
-        <v>372</v>
+        <v>414</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="O45" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -6083,56 +6583,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>374</v>
+        <v>416</v>
       </c>
       <c r="X45" t="s">
-        <v>375</v>
+        <v>417</v>
       </c>
       <c r="Y45" t="s">
-        <v>376</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>1040</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>154943</v>
+      </c>
+      <c r="C46" t="s">
+        <v>419</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>377</v>
+        <v>420</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="J46" t="s">
-        <v>379</v>
+        <v>422</v>
       </c>
       <c r="K46" t="s">
-        <v>380</v>
+        <v>423</v>
       </c>
       <c r="L46" t="s">
-        <v>381</v>
+        <v>424</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>373</v>
+        <v>415</v>
       </c>
       <c r="O46" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P46" t="s"/>
       <c r="Q46" t="n">
@@ -6150,56 +6654,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>382</v>
+        <v>425</v>
       </c>
       <c r="X46" t="s">
-        <v>383</v>
+        <v>426</v>
       </c>
       <c r="Y46" t="s">
-        <v>384</v>
+        <v>427</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>1040</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>154944</v>
+      </c>
+      <c r="C47" t="s">
+        <v>428</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>385</v>
+        <v>429</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>386</v>
+        <v>430</v>
       </c>
       <c r="J47" t="s">
-        <v>387</v>
+        <v>431</v>
       </c>
       <c r="K47" t="s">
-        <v>388</v>
+        <v>432</v>
       </c>
       <c r="L47" t="s">
-        <v>389</v>
+        <v>433</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="O47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -6215,56 +6723,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>391</v>
+        <v>435</v>
       </c>
       <c r="X47" t="s">
-        <v>392</v>
+        <v>436</v>
       </c>
       <c r="Y47" t="s">
-        <v>393</v>
+        <v>437</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>1040</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>154945</v>
+      </c>
+      <c r="C48" t="s">
+        <v>438</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>395</v>
+        <v>440</v>
       </c>
       <c r="J48" t="s">
-        <v>396</v>
+        <v>441</v>
       </c>
       <c r="K48" t="s">
-        <v>397</v>
+        <v>442</v>
       </c>
       <c r="L48" t="s">
-        <v>398</v>
+        <v>443</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>390</v>
+        <v>434</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -6282,56 +6794,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="X48" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="Y48" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>1040</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>154946</v>
+      </c>
+      <c r="C49" t="s">
+        <v>447</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>402</v>
+        <v>448</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>403</v>
+        <v>449</v>
       </c>
       <c r="J49" t="s">
-        <v>404</v>
+        <v>450</v>
       </c>
       <c r="K49" t="s">
-        <v>405</v>
+        <v>451</v>
       </c>
       <c r="L49" t="s">
-        <v>406</v>
+        <v>452</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" t="s"/>
       <c r="Q49" t="s"/>
@@ -6343,47 +6859,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="X49" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="Y49" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>1040</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>81673</v>
+      </c>
+      <c r="C50" t="s">
+        <v>455</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>409</v>
+        <v>456</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>410</v>
+        <v>457</v>
       </c>
       <c r="J50" t="s">
-        <v>411</v>
+        <v>458</v>
       </c>
       <c r="K50" t="s">
-        <v>412</v>
+        <v>459</v>
       </c>
       <c r="L50" t="s">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -6410,56 +6930,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>399</v>
+        <v>444</v>
       </c>
       <c r="X50" t="s">
-        <v>400</v>
+        <v>445</v>
       </c>
       <c r="Y50" t="s">
-        <v>414</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>1040</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>154947</v>
+      </c>
+      <c r="C51" t="s">
+        <v>462</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>415</v>
+        <v>463</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>416</v>
+        <v>464</v>
       </c>
       <c r="J51" t="s">
-        <v>417</v>
+        <v>465</v>
       </c>
       <c r="K51" t="s">
-        <v>418</v>
+        <v>466</v>
       </c>
       <c r="L51" t="s">
-        <v>419</v>
+        <v>467</v>
       </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -6475,56 +6999,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>420</v>
+        <v>468</v>
       </c>
       <c r="X51" t="s">
-        <v>421</v>
+        <v>469</v>
       </c>
       <c r="Y51" t="s">
-        <v>422</v>
+        <v>470</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>1040</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>154948</v>
+      </c>
+      <c r="C52" t="s">
+        <v>471</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>423</v>
+        <v>472</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>424</v>
+        <v>473</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>474</v>
       </c>
       <c r="K52" t="s">
-        <v>426</v>
+        <v>475</v>
       </c>
       <c r="L52" t="s">
-        <v>427</v>
+        <v>476</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>453</v>
       </c>
       <c r="O52" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="s"/>
@@ -6536,56 +7064,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>428</v>
+        <v>477</v>
       </c>
       <c r="X52" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="Y52" t="s">
-        <v>430</v>
+        <v>479</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>1040</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>48607</v>
+      </c>
+      <c r="C53" t="s">
+        <v>480</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>431</v>
+        <v>481</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>432</v>
+        <v>482</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>483</v>
       </c>
       <c r="K53" t="s">
-        <v>434</v>
+        <v>484</v>
       </c>
       <c r="L53" t="s">
-        <v>435</v>
+        <v>485</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -6601,56 +7133,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>437</v>
+        <v>487</v>
       </c>
       <c r="X53" t="s">
-        <v>438</v>
+        <v>488</v>
       </c>
       <c r="Y53" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>1040</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>154922</v>
+      </c>
+      <c r="C54" t="s">
+        <v>166</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>441</v>
+        <v>491</v>
       </c>
       <c r="J54" t="s">
-        <v>442</v>
+        <v>492</v>
       </c>
       <c r="K54" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L54" t="s">
-        <v>444</v>
+        <v>494</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>445</v>
+        <v>495</v>
       </c>
       <c r="O54" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -6668,47 +7204,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="X54" t="s">
-        <v>447</v>
+        <v>497</v>
       </c>
       <c r="Y54" t="s">
-        <v>448</v>
+        <v>498</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>1040</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>154949</v>
+      </c>
+      <c r="C55" t="s">
+        <v>499</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>449</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>450</v>
+        <v>501</v>
       </c>
       <c r="J55" t="s">
-        <v>451</v>
+        <v>502</v>
       </c>
       <c r="K55" t="s">
-        <v>452</v>
+        <v>503</v>
       </c>
       <c r="L55" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
       <c r="M55" t="n">
         <v>2</v>
@@ -6735,56 +7275,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>454</v>
+        <v>505</v>
       </c>
       <c r="X55" t="s">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="Y55" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>1040</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>154950</v>
+      </c>
+      <c r="C56" t="s">
+        <v>508</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="J56" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="K56" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>436</v>
+        <v>486</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P56" t="s"/>
       <c r="Q56" t="n">
@@ -6802,13 +7346,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="X56" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="Y56" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
     </row>
     <row r="57">
@@ -6821,37 +7365,37 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="J57" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="K57" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="L57" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
       </c>
       <c r="N57" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="O57" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P57" t="n">
         <v>3</v>
@@ -6869,56 +7413,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X57" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y57" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>1040</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>25590</v>
+      </c>
+      <c r="C58" t="s">
+        <v>526</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>474</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>475</v>
+        <v>528</v>
       </c>
       <c r="J58" t="s">
-        <v>476</v>
+        <v>529</v>
       </c>
       <c r="K58" t="s">
-        <v>477</v>
+        <v>530</v>
       </c>
       <c r="L58" t="s">
-        <v>478</v>
+        <v>531</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="O58" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="n">
@@ -6936,56 +7484,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="X58" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="Y58" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>1040</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>28000</v>
+      </c>
+      <c r="C59" t="s">
+        <v>536</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>483</v>
+        <v>537</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>484</v>
+        <v>538</v>
       </c>
       <c r="J59" t="s">
-        <v>485</v>
+        <v>539</v>
       </c>
       <c r="K59" t="s">
-        <v>486</v>
+        <v>540</v>
       </c>
       <c r="L59" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="s"/>
@@ -7001,56 +7553,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="X59" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="Y59" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>1040</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>7948</v>
+      </c>
+      <c r="C60" t="s">
+        <v>546</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="J60" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="K60" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="L60" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="M60" t="n">
         <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O60" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P60" t="n">
         <v>5</v>
@@ -7068,56 +7624,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X60" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y60" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>1040</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>41562</v>
+      </c>
+      <c r="C61" t="s">
+        <v>555</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="J61" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="K61" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="L61" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="O61" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P61" t="s"/>
       <c r="Q61" t="s"/>
@@ -7129,56 +7689,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X61" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y61" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>1040</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>154951</v>
+      </c>
+      <c r="C62" t="s">
+        <v>563</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="J62" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="K62" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="L62" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="M62" t="n">
         <v>3</v>
       </c>
       <c r="N62" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O62" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P62" t="s"/>
       <c r="Q62" t="s"/>
@@ -7190,56 +7754,60 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="X62" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>1040</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>154952</v>
+      </c>
+      <c r="C63" t="s">
+        <v>570</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>513</v>
+        <v>571</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="J63" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="K63" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="L63" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="M63" t="n">
         <v>4</v>
       </c>
       <c r="N63" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="O63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="n">
@@ -7255,56 +7823,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="X63" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="Y63" t="s">
-        <v>520</v>
+        <v>578</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>1040</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>154953</v>
+      </c>
+      <c r="C64" t="s">
+        <v>579</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="J64" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="K64" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="L64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
       <c r="N64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O64" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P64" t="s"/>
       <c r="Q64" t="n">
@@ -7320,56 +7892,60 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>527</v>
+        <v>586</v>
       </c>
       <c r="X64" t="s">
-        <v>528</v>
+        <v>587</v>
       </c>
       <c r="Y64" t="s">
-        <v>529</v>
+        <v>588</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>1040</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>9167</v>
+      </c>
+      <c r="C65" t="s">
+        <v>589</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="J65" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="K65" t="s">
-        <v>533</v>
+        <v>593</v>
       </c>
       <c r="L65" t="s">
-        <v>534</v>
+        <v>594</v>
       </c>
       <c r="M65" t="n">
         <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
       <c r="O65" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -7387,47 +7963,51 @@
         <v>0</v>
       </c>
       <c r="W65" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="X65" t="s">
-        <v>536</v>
+        <v>596</v>
       </c>
       <c r="Y65" t="s">
-        <v>537</v>
+        <v>597</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>1040</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>154954</v>
+      </c>
+      <c r="C66" t="s">
+        <v>598</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
       <c r="J66" t="s">
-        <v>540</v>
+        <v>601</v>
       </c>
       <c r="K66" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="L66" t="s">
-        <v>542</v>
+        <v>603</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
@@ -7454,47 +8034,51 @@
         <v>0</v>
       </c>
       <c r="W66" t="s">
-        <v>543</v>
+        <v>604</v>
       </c>
       <c r="X66" t="s">
-        <v>544</v>
+        <v>605</v>
       </c>
       <c r="Y66" t="s">
-        <v>545</v>
+        <v>606</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>1040</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>154955</v>
+      </c>
+      <c r="C67" t="s">
+        <v>607</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>546</v>
+        <v>608</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>547</v>
+        <v>609</v>
       </c>
       <c r="J67" t="s">
-        <v>548</v>
+        <v>610</v>
       </c>
       <c r="K67" t="s">
-        <v>549</v>
+        <v>611</v>
       </c>
       <c r="L67" t="s">
-        <v>550</v>
+        <v>612</v>
       </c>
       <c r="M67" t="n">
         <v>4</v>
@@ -7521,56 +8105,60 @@
         <v>0</v>
       </c>
       <c r="W67" t="s">
-        <v>551</v>
+        <v>613</v>
       </c>
       <c r="X67" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="Y67" t="s">
-        <v>553</v>
+        <v>615</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>1040</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>154956</v>
+      </c>
+      <c r="C68" t="s">
+        <v>616</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>554</v>
+        <v>617</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>555</v>
+        <v>618</v>
       </c>
       <c r="J68" t="s">
-        <v>556</v>
+        <v>619</v>
       </c>
       <c r="K68" t="s">
-        <v>557</v>
+        <v>620</v>
       </c>
       <c r="L68" t="s">
-        <v>558</v>
+        <v>621</v>
       </c>
       <c r="M68" t="n">
         <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="O68" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P68" t="n">
         <v>2</v>
@@ -7592,56 +8180,60 @@
         <v>0</v>
       </c>
       <c r="W68" t="s">
-        <v>560</v>
+        <v>623</v>
       </c>
       <c r="X68" t="s">
-        <v>561</v>
+        <v>624</v>
       </c>
       <c r="Y68" t="s">
-        <v>562</v>
+        <v>625</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>1040</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>51514</v>
+      </c>
+      <c r="C69" t="s">
+        <v>626</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>563</v>
+        <v>627</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>564</v>
+        <v>628</v>
       </c>
       <c r="J69" t="s">
-        <v>565</v>
+        <v>629</v>
       </c>
       <c r="K69" t="s">
-        <v>566</v>
+        <v>630</v>
       </c>
       <c r="L69" t="s">
-        <v>567</v>
+        <v>631</v>
       </c>
       <c r="M69" t="n">
         <v>4</v>
       </c>
       <c r="N69" t="s">
-        <v>559</v>
+        <v>622</v>
       </c>
       <c r="O69" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
@@ -7663,56 +8255,60 @@
         <v>0</v>
       </c>
       <c r="W69" t="s">
-        <v>568</v>
+        <v>632</v>
       </c>
       <c r="X69" t="s">
-        <v>569</v>
+        <v>633</v>
       </c>
       <c r="Y69" t="s">
-        <v>570</v>
+        <v>634</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>1040</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>154957</v>
+      </c>
+      <c r="C70" t="s">
+        <v>635</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>571</v>
+        <v>636</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>572</v>
+        <v>637</v>
       </c>
       <c r="J70" t="s">
-        <v>573</v>
+        <v>638</v>
       </c>
       <c r="K70" t="s">
-        <v>574</v>
+        <v>639</v>
       </c>
       <c r="L70" t="s">
-        <v>575</v>
+        <v>640</v>
       </c>
       <c r="M70" t="n">
         <v>5</v>
       </c>
       <c r="N70" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="O70" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P70" t="n">
         <v>5</v>
@@ -7734,13 +8330,13 @@
         <v>0</v>
       </c>
       <c r="W70" t="s">
-        <v>577</v>
+        <v>642</v>
       </c>
       <c r="X70" t="s">
-        <v>578</v>
+        <v>643</v>
       </c>
       <c r="Y70" t="s">
-        <v>579</v>
+        <v>644</v>
       </c>
     </row>
     <row r="71">
@@ -7753,37 +8349,37 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>580</v>
+        <v>645</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>581</v>
+        <v>646</v>
       </c>
       <c r="J71" t="s">
-        <v>582</v>
+        <v>647</v>
       </c>
       <c r="K71" t="s">
-        <v>583</v>
+        <v>648</v>
       </c>
       <c r="L71" t="s">
-        <v>584</v>
+        <v>649</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>576</v>
+        <v>641</v>
       </c>
       <c r="O71" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -7805,56 +8401,60 @@
         <v>0</v>
       </c>
       <c r="W71" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X71" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y71" t="s">
-        <v>587</v>
+        <v>652</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>1040</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>154958</v>
+      </c>
+      <c r="C72" t="s">
+        <v>653</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>588</v>
+        <v>654</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>589</v>
+        <v>655</v>
       </c>
       <c r="J72" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="K72" t="s">
-        <v>591</v>
+        <v>657</v>
       </c>
       <c r="L72" t="s">
-        <v>592</v>
+        <v>658</v>
       </c>
       <c r="M72" t="n">
         <v>3</v>
       </c>
       <c r="N72" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="O72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P72" t="n">
         <v>3</v>
@@ -7876,56 +8476,60 @@
         <v>0</v>
       </c>
       <c r="W72" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X72" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y72" t="s">
-        <v>594</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>1040</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>5292</v>
+      </c>
+      <c r="C73" t="s">
+        <v>661</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>595</v>
+        <v>662</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>596</v>
+        <v>663</v>
       </c>
       <c r="J73" t="s">
-        <v>590</v>
+        <v>656</v>
       </c>
       <c r="K73" t="s">
-        <v>597</v>
+        <v>664</v>
       </c>
       <c r="L73" t="s">
-        <v>598</v>
+        <v>665</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>593</v>
+        <v>659</v>
       </c>
       <c r="O73" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P73" t="n">
         <v>4</v>
@@ -7947,56 +8551,60 @@
         <v>0</v>
       </c>
       <c r="W73" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X73" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y73" t="s">
-        <v>599</v>
+        <v>666</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>1040</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>154959</v>
+      </c>
+      <c r="C74" t="s">
+        <v>667</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>600</v>
+        <v>668</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>601</v>
+        <v>669</v>
       </c>
       <c r="J74" t="s">
-        <v>602</v>
+        <v>670</v>
       </c>
       <c r="K74" t="s">
-        <v>603</v>
+        <v>671</v>
       </c>
       <c r="L74" t="s">
-        <v>604</v>
+        <v>672</v>
       </c>
       <c r="M74" t="n">
         <v>5</v>
       </c>
       <c r="N74" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="O74" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P74" t="n">
         <v>5</v>
@@ -8018,56 +8626,60 @@
         <v>0</v>
       </c>
       <c r="W74" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X74" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y74" t="s">
-        <v>606</v>
+        <v>674</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>1040</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>2674</v>
+      </c>
+      <c r="C75" t="s">
+        <v>675</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>607</v>
+        <v>676</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>608</v>
+        <v>677</v>
       </c>
       <c r="J75" t="s">
-        <v>609</v>
+        <v>678</v>
       </c>
       <c r="K75" t="s">
-        <v>610</v>
+        <v>679</v>
       </c>
       <c r="L75" t="s">
-        <v>611</v>
+        <v>680</v>
       </c>
       <c r="M75" t="n">
         <v>3</v>
       </c>
       <c r="N75" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -8079,56 +8691,60 @@
         <v>0</v>
       </c>
       <c r="W75" t="s">
-        <v>612</v>
+        <v>681</v>
       </c>
       <c r="X75" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y75" t="s">
-        <v>613</v>
+        <v>682</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>1040</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>154960</v>
+      </c>
+      <c r="C76" t="s">
+        <v>683</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>614</v>
+        <v>684</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="J76" t="s">
-        <v>616</v>
+        <v>686</v>
       </c>
       <c r="K76" t="s">
-        <v>617</v>
+        <v>687</v>
       </c>
       <c r="L76" t="s">
-        <v>618</v>
+        <v>688</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>605</v>
+        <v>673</v>
       </c>
       <c r="O76" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P76" t="n">
         <v>4</v>
@@ -8150,56 +8766,60 @@
         <v>0</v>
       </c>
       <c r="W76" t="s">
-        <v>585</v>
+        <v>650</v>
       </c>
       <c r="X76" t="s">
-        <v>586</v>
+        <v>651</v>
       </c>
       <c r="Y76" t="s">
-        <v>619</v>
+        <v>689</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>1040</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>2377</v>
+      </c>
+      <c r="C77" t="s">
+        <v>690</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>620</v>
+        <v>691</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>621</v>
+        <v>692</v>
       </c>
       <c r="J77" t="s">
-        <v>622</v>
+        <v>693</v>
       </c>
       <c r="K77" t="s">
-        <v>623</v>
+        <v>694</v>
       </c>
       <c r="L77" t="s">
-        <v>624</v>
+        <v>695</v>
       </c>
       <c r="M77" t="n">
         <v>3</v>
       </c>
       <c r="N77" t="s">
-        <v>625</v>
+        <v>696</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -8221,56 +8841,60 @@
         <v>0</v>
       </c>
       <c r="W77" t="s">
-        <v>626</v>
+        <v>697</v>
       </c>
       <c r="X77" t="s">
-        <v>627</v>
+        <v>698</v>
       </c>
       <c r="Y77" t="s">
-        <v>628</v>
+        <v>699</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>1040</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>154961</v>
+      </c>
+      <c r="C78" t="s">
+        <v>700</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>629</v>
+        <v>701</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="J78" t="s">
-        <v>631</v>
+        <v>703</v>
       </c>
       <c r="K78" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="L78" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
       <c r="M78" t="n">
         <v>5</v>
       </c>
       <c r="N78" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -8292,56 +8916,60 @@
         <v>0</v>
       </c>
       <c r="W78" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="X78" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="Y78" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>1040</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>154962</v>
+      </c>
+      <c r="C79" t="s">
+        <v>710</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>638</v>
+        <v>711</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>639</v>
+        <v>712</v>
       </c>
       <c r="J79" t="s">
-        <v>640</v>
+        <v>713</v>
       </c>
       <c r="K79" t="s">
-        <v>641</v>
+        <v>714</v>
       </c>
       <c r="L79" t="s">
-        <v>642</v>
+        <v>715</v>
       </c>
       <c r="M79" t="n">
         <v>2</v>
       </c>
       <c r="N79" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O79" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P79" t="n">
         <v>3</v>
@@ -8363,56 +8991,60 @@
         <v>0</v>
       </c>
       <c r="W79" t="s">
-        <v>643</v>
+        <v>716</v>
       </c>
       <c r="X79" t="s">
-        <v>644</v>
+        <v>717</v>
       </c>
       <c r="Y79" t="s">
-        <v>645</v>
+        <v>718</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>1040</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>154963</v>
+      </c>
+      <c r="C80" t="s">
+        <v>719</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>646</v>
+        <v>720</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>647</v>
+        <v>721</v>
       </c>
       <c r="J80" t="s">
-        <v>648</v>
+        <v>722</v>
       </c>
       <c r="K80" t="s">
-        <v>649</v>
+        <v>723</v>
       </c>
       <c r="L80" t="s">
-        <v>650</v>
+        <v>724</v>
       </c>
       <c r="M80" t="n">
         <v>3</v>
       </c>
       <c r="N80" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O80" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P80" t="n">
         <v>1</v>
@@ -8434,47 +9066,51 @@
         <v>0</v>
       </c>
       <c r="W80" t="s">
-        <v>651</v>
+        <v>725</v>
       </c>
       <c r="X80" t="s">
-        <v>652</v>
+        <v>726</v>
       </c>
       <c r="Y80" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>1040</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>154964</v>
+      </c>
+      <c r="C81" t="s">
+        <v>728</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>654</v>
+        <v>729</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>655</v>
+        <v>730</v>
       </c>
       <c r="J81" t="s">
-        <v>656</v>
+        <v>731</v>
       </c>
       <c r="K81" t="s">
-        <v>657</v>
+        <v>732</v>
       </c>
       <c r="L81" t="s">
-        <v>658</v>
+        <v>733</v>
       </c>
       <c r="M81" t="n">
         <v>3</v>
@@ -8501,56 +9137,60 @@
         <v>0</v>
       </c>
       <c r="W81" t="s">
-        <v>659</v>
+        <v>734</v>
       </c>
       <c r="X81" t="s">
-        <v>660</v>
+        <v>735</v>
       </c>
       <c r="Y81" t="s">
-        <v>661</v>
+        <v>736</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>1040</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>154965</v>
+      </c>
+      <c r="C82" t="s">
+        <v>737</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>662</v>
+        <v>738</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>663</v>
+        <v>739</v>
       </c>
       <c r="J82" t="s">
-        <v>664</v>
+        <v>740</v>
       </c>
       <c r="K82" t="s">
-        <v>665</v>
+        <v>741</v>
       </c>
       <c r="L82" t="s">
-        <v>666</v>
+        <v>742</v>
       </c>
       <c r="M82" t="n">
         <v>3</v>
       </c>
       <c r="N82" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="O82" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P82" t="n">
         <v>4</v>
@@ -8572,56 +9212,60 @@
         <v>0</v>
       </c>
       <c r="W82" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="X82" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Y82" t="s">
-        <v>670</v>
+        <v>746</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>1040</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>154966</v>
+      </c>
+      <c r="C83" t="s">
+        <v>747</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>671</v>
+        <v>748</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>672</v>
+        <v>749</v>
       </c>
       <c r="J83" t="s">
-        <v>673</v>
+        <v>750</v>
       </c>
       <c r="K83" t="s">
-        <v>674</v>
+        <v>751</v>
       </c>
       <c r="L83" t="s">
-        <v>675</v>
+        <v>752</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>667</v>
+        <v>743</v>
       </c>
       <c r="O83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -8643,56 +9287,60 @@
         <v>0</v>
       </c>
       <c r="W83" t="s">
-        <v>668</v>
+        <v>744</v>
       </c>
       <c r="X83" t="s">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Y83" t="s">
-        <v>676</v>
+        <v>753</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>1040</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>154967</v>
+      </c>
+      <c r="C84" t="s">
+        <v>754</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>677</v>
+        <v>755</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="J84" t="s">
-        <v>679</v>
+        <v>757</v>
       </c>
       <c r="K84" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="L84" t="s">
-        <v>681</v>
+        <v>759</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>682</v>
+        <v>760</v>
       </c>
       <c r="O84" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P84" t="n">
         <v>3</v>
@@ -8712,56 +9360,60 @@
         <v>0</v>
       </c>
       <c r="W84" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="X84" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
       <c r="Y84" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>1040</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>154968</v>
+      </c>
+      <c r="C85" t="s">
+        <v>764</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>686</v>
+        <v>765</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>687</v>
+        <v>766</v>
       </c>
       <c r="J85" t="s">
-        <v>688</v>
+        <v>767</v>
       </c>
       <c r="K85" t="s">
-        <v>689</v>
+        <v>768</v>
       </c>
       <c r="L85" t="s">
-        <v>690</v>
+        <v>769</v>
       </c>
       <c r="M85" t="n">
         <v>3</v>
       </c>
       <c r="N85" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
       <c r="O85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P85" t="n">
         <v>5</v>
@@ -8783,56 +9435,60 @@
         <v>0</v>
       </c>
       <c r="W85" t="s">
-        <v>692</v>
+        <v>771</v>
       </c>
       <c r="X85" t="s">
-        <v>693</v>
+        <v>772</v>
       </c>
       <c r="Y85" t="s">
-        <v>694</v>
+        <v>773</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>1040</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>154969</v>
+      </c>
+      <c r="C86" t="s">
+        <v>774</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>695</v>
+        <v>775</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>696</v>
+        <v>776</v>
       </c>
       <c r="J86" t="s">
-        <v>697</v>
+        <v>777</v>
       </c>
       <c r="K86" t="s">
-        <v>698</v>
+        <v>778</v>
       </c>
       <c r="L86" t="s">
-        <v>699</v>
+        <v>779</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>691</v>
+        <v>770</v>
       </c>
       <c r="O86" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -8854,56 +9510,60 @@
         <v>0</v>
       </c>
       <c r="W86" t="s">
-        <v>700</v>
+        <v>780</v>
       </c>
       <c r="X86" t="s">
-        <v>701</v>
+        <v>781</v>
       </c>
       <c r="Y86" t="s">
-        <v>702</v>
+        <v>782</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>1040</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>154970</v>
+      </c>
+      <c r="C87" t="s">
+        <v>783</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>703</v>
+        <v>784</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>704</v>
+        <v>785</v>
       </c>
       <c r="J87" t="s">
-        <v>705</v>
+        <v>786</v>
       </c>
       <c r="K87" t="s">
-        <v>706</v>
+        <v>787</v>
       </c>
       <c r="L87" t="s">
-        <v>707</v>
+        <v>788</v>
       </c>
       <c r="M87" t="n">
         <v>4</v>
       </c>
       <c r="N87" t="s">
-        <v>708</v>
+        <v>789</v>
       </c>
       <c r="O87" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -8925,56 +9585,60 @@
         <v>0</v>
       </c>
       <c r="W87" t="s">
-        <v>709</v>
+        <v>790</v>
       </c>
       <c r="X87" t="s">
-        <v>710</v>
+        <v>791</v>
       </c>
       <c r="Y87" t="s">
-        <v>711</v>
+        <v>792</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>1040</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>15596</v>
+      </c>
+      <c r="C88" t="s">
+        <v>793</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>712</v>
+        <v>794</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>713</v>
+        <v>795</v>
       </c>
       <c r="J88" t="s">
-        <v>714</v>
+        <v>796</v>
       </c>
       <c r="K88" t="s">
-        <v>715</v>
+        <v>797</v>
       </c>
       <c r="L88" t="s">
-        <v>716</v>
+        <v>798</v>
       </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
       <c r="N88" t="s">
-        <v>717</v>
+        <v>799</v>
       </c>
       <c r="O88" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P88" t="n">
         <v>1</v>
@@ -8996,47 +9660,51 @@
         <v>0</v>
       </c>
       <c r="W88" t="s">
-        <v>718</v>
+        <v>800</v>
       </c>
       <c r="X88" t="s">
-        <v>719</v>
+        <v>801</v>
       </c>
       <c r="Y88" t="s">
-        <v>720</v>
+        <v>802</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>1040</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>154971</v>
+      </c>
+      <c r="C89" t="s">
+        <v>803</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>721</v>
+        <v>804</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>722</v>
+        <v>805</v>
       </c>
       <c r="J89" t="s">
-        <v>723</v>
+        <v>806</v>
       </c>
       <c r="K89" t="s">
-        <v>724</v>
+        <v>807</v>
       </c>
       <c r="L89" t="s">
-        <v>725</v>
+        <v>808</v>
       </c>
       <c r="M89" t="n">
         <v>5</v>
@@ -9063,56 +9731,60 @@
         <v>0</v>
       </c>
       <c r="W89" t="s">
-        <v>726</v>
+        <v>809</v>
       </c>
       <c r="X89" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="Y89" t="s">
-        <v>728</v>
+        <v>811</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>1040</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>1035</v>
+      </c>
+      <c r="C90" t="s">
+        <v>812</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>729</v>
+        <v>813</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>730</v>
+        <v>814</v>
       </c>
       <c r="J90" t="s">
-        <v>723</v>
+        <v>806</v>
       </c>
       <c r="K90" t="s">
-        <v>731</v>
+        <v>815</v>
       </c>
       <c r="L90" t="s">
-        <v>732</v>
+        <v>816</v>
       </c>
       <c r="M90" t="n">
         <v>4</v>
       </c>
       <c r="N90" t="s">
-        <v>717</v>
+        <v>799</v>
       </c>
       <c r="O90" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P90" t="n">
         <v>5</v>
@@ -9134,13 +9806,13 @@
         <v>0</v>
       </c>
       <c r="W90" t="s">
-        <v>726</v>
+        <v>809</v>
       </c>
       <c r="X90" t="s">
-        <v>727</v>
+        <v>810</v>
       </c>
       <c r="Y90" t="s">
-        <v>733</v>
+        <v>817</v>
       </c>
     </row>
     <row r="91">
@@ -9153,37 +9825,37 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>734</v>
+        <v>818</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>735</v>
+        <v>819</v>
       </c>
       <c r="J91" t="s">
-        <v>736</v>
+        <v>820</v>
       </c>
       <c r="K91" t="s">
-        <v>737</v>
+        <v>821</v>
       </c>
       <c r="L91" t="s">
-        <v>738</v>
+        <v>822</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
       <c r="O91" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P91" t="n">
         <v>3</v>
@@ -9205,47 +9877,51 @@
         <v>0</v>
       </c>
       <c r="W91" t="s">
-        <v>740</v>
+        <v>824</v>
       </c>
       <c r="X91" t="s">
-        <v>741</v>
+        <v>825</v>
       </c>
       <c r="Y91" t="s">
-        <v>742</v>
+        <v>826</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>1040</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>154972</v>
+      </c>
+      <c r="C92" t="s">
+        <v>827</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>743</v>
+        <v>828</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>744</v>
+        <v>829</v>
       </c>
       <c r="J92" t="s">
-        <v>745</v>
+        <v>830</v>
       </c>
       <c r="K92" t="s">
-        <v>746</v>
+        <v>831</v>
       </c>
       <c r="L92" t="s">
-        <v>747</v>
+        <v>832</v>
       </c>
       <c r="M92" t="n">
         <v>4</v>
@@ -9272,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="W92" t="s">
-        <v>748</v>
+        <v>833</v>
       </c>
       <c r="X92" t="s">
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="Y92" t="s">
-        <v>750</v>
+        <v>835</v>
       </c>
     </row>
     <row r="93">
@@ -9291,37 +9967,37 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>751</v>
+        <v>836</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>752</v>
+        <v>837</v>
       </c>
       <c r="J93" t="s">
-        <v>753</v>
+        <v>838</v>
       </c>
       <c r="K93" t="s">
-        <v>754</v>
+        <v>839</v>
       </c>
       <c r="L93" t="s">
-        <v>755</v>
+        <v>840</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>739</v>
+        <v>823</v>
       </c>
       <c r="O93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P93" t="n">
         <v>4</v>
@@ -9343,56 +10019,60 @@
         <v>0</v>
       </c>
       <c r="W93" t="s">
-        <v>748</v>
+        <v>833</v>
       </c>
       <c r="X93" t="s">
-        <v>749</v>
+        <v>834</v>
       </c>
       <c r="Y93" t="s">
-        <v>756</v>
+        <v>841</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>1040</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>22184</v>
+      </c>
+      <c r="C94" t="s">
+        <v>842</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>757</v>
+        <v>843</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>758</v>
+        <v>844</v>
       </c>
       <c r="J94" t="s">
-        <v>759</v>
+        <v>845</v>
       </c>
       <c r="K94" t="s">
-        <v>760</v>
+        <v>846</v>
       </c>
       <c r="L94" t="s">
-        <v>761</v>
+        <v>847</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>762</v>
+        <v>848</v>
       </c>
       <c r="O94" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -9414,13 +10094,13 @@
         <v>0</v>
       </c>
       <c r="W94" t="s">
-        <v>763</v>
+        <v>849</v>
       </c>
       <c r="X94" t="s">
-        <v>764</v>
+        <v>850</v>
       </c>
       <c r="Y94" t="s">
-        <v>765</v>
+        <v>851</v>
       </c>
     </row>
     <row r="95">
@@ -9433,37 +10113,37 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>766</v>
+        <v>852</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>767</v>
+        <v>853</v>
       </c>
       <c r="J95" t="s">
-        <v>768</v>
+        <v>854</v>
       </c>
       <c r="K95" t="s">
-        <v>680</v>
+        <v>758</v>
       </c>
       <c r="L95" t="s">
-        <v>769</v>
+        <v>855</v>
       </c>
       <c r="M95" t="n">
         <v>4</v>
       </c>
       <c r="N95" t="s">
-        <v>762</v>
+        <v>848</v>
       </c>
       <c r="O95" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -9485,47 +10165,51 @@
         <v>0</v>
       </c>
       <c r="W95" t="s">
-        <v>763</v>
+        <v>849</v>
       </c>
       <c r="X95" t="s">
-        <v>764</v>
+        <v>850</v>
       </c>
       <c r="Y95" t="s">
-        <v>770</v>
+        <v>856</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>1040</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>154973</v>
+      </c>
+      <c r="C96" t="s">
+        <v>857</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>771</v>
+        <v>858</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>772</v>
+        <v>859</v>
       </c>
       <c r="J96" t="s">
-        <v>773</v>
+        <v>860</v>
       </c>
       <c r="K96" t="s">
-        <v>774</v>
+        <v>861</v>
       </c>
       <c r="L96" t="s">
-        <v>775</v>
+        <v>862</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
@@ -9552,56 +10236,60 @@
         <v>0</v>
       </c>
       <c r="W96" t="s">
-        <v>776</v>
+        <v>863</v>
       </c>
       <c r="X96" t="s">
-        <v>777</v>
+        <v>864</v>
       </c>
       <c r="Y96" t="s">
-        <v>778</v>
+        <v>865</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>1040</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>321</v>
+      </c>
+      <c r="C97" t="s">
+        <v>866</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>779</v>
+        <v>867</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>780</v>
+        <v>868</v>
       </c>
       <c r="J97" t="s">
-        <v>781</v>
+        <v>869</v>
       </c>
       <c r="K97" t="s">
-        <v>782</v>
+        <v>870</v>
       </c>
       <c r="L97" t="s">
-        <v>783</v>
+        <v>871</v>
       </c>
       <c r="M97" t="n">
         <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>784</v>
+        <v>872</v>
       </c>
       <c r="O97" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="P97" t="n">
         <v>2</v>
@@ -9623,56 +10311,60 @@
         <v>0</v>
       </c>
       <c r="W97" t="s">
-        <v>785</v>
+        <v>873</v>
       </c>
       <c r="X97" t="s">
-        <v>786</v>
+        <v>874</v>
       </c>
       <c r="Y97" t="s">
-        <v>787</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>1040</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>64978</v>
+      </c>
+      <c r="C98" t="s">
+        <v>876</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>788</v>
+        <v>877</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>789</v>
+        <v>878</v>
       </c>
       <c r="J98" t="s">
-        <v>790</v>
+        <v>879</v>
       </c>
       <c r="K98" t="s">
-        <v>791</v>
+        <v>880</v>
       </c>
       <c r="L98" t="s">
-        <v>792</v>
+        <v>881</v>
       </c>
       <c r="M98" t="n">
         <v>3</v>
       </c>
       <c r="N98" t="s">
-        <v>793</v>
+        <v>882</v>
       </c>
       <c r="O98" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P98" t="n">
         <v>3</v>
@@ -9694,56 +10386,60 @@
         <v>0</v>
       </c>
       <c r="W98" t="s">
-        <v>794</v>
+        <v>883</v>
       </c>
       <c r="X98" t="s">
-        <v>795</v>
+        <v>884</v>
       </c>
       <c r="Y98" t="s">
-        <v>796</v>
+        <v>885</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>1040</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>358</v>
+      </c>
+      <c r="C99" t="s">
+        <v>886</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>797</v>
+        <v>887</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>798</v>
+        <v>888</v>
       </c>
       <c r="J99" t="s">
-        <v>799</v>
+        <v>889</v>
       </c>
       <c r="K99" t="s">
-        <v>800</v>
+        <v>890</v>
       </c>
       <c r="L99" t="s">
-        <v>801</v>
+        <v>891</v>
       </c>
       <c r="M99" t="n">
         <v>4</v>
       </c>
       <c r="N99" t="s">
-        <v>802</v>
+        <v>892</v>
       </c>
       <c r="O99" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P99" t="n">
         <v>4</v>
@@ -9767,50 +10463,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>801</v>
+        <v>891</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>1040</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>154974</v>
+      </c>
+      <c r="C100" t="s">
+        <v>893</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>803</v>
+        <v>894</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="J100" t="s">
-        <v>805</v>
+        <v>896</v>
       </c>
       <c r="K100" t="s">
-        <v>806</v>
+        <v>897</v>
       </c>
       <c r="L100" t="s">
-        <v>807</v>
+        <v>898</v>
       </c>
       <c r="M100" t="n">
         <v>2</v>
       </c>
       <c r="N100" t="s">
-        <v>808</v>
+        <v>899</v>
       </c>
       <c r="O100" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P100" t="n">
         <v>3</v>
@@ -9834,50 +10534,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>809</v>
+        <v>900</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>1040</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>154975</v>
+      </c>
+      <c r="C101" t="s">
+        <v>901</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>810</v>
+        <v>902</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>811</v>
+        <v>903</v>
       </c>
       <c r="J101" t="s">
-        <v>812</v>
+        <v>904</v>
       </c>
       <c r="K101" t="s">
-        <v>813</v>
+        <v>905</v>
       </c>
       <c r="L101" t="s">
-        <v>814</v>
+        <v>906</v>
       </c>
       <c r="M101" t="n">
         <v>3</v>
       </c>
       <c r="N101" t="s">
-        <v>808</v>
+        <v>899</v>
       </c>
       <c r="O101" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -9901,50 +10605,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>815</v>
+        <v>907</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>1040</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>154976</v>
+      </c>
+      <c r="C102" t="s">
+        <v>908</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>816</v>
+        <v>909</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>817</v>
+        <v>910</v>
       </c>
       <c r="J102" t="s">
-        <v>812</v>
+        <v>904</v>
       </c>
       <c r="K102" t="s">
-        <v>818</v>
+        <v>911</v>
       </c>
       <c r="L102" t="s">
-        <v>819</v>
+        <v>912</v>
       </c>
       <c r="M102" t="n">
         <v>3</v>
       </c>
       <c r="N102" t="s">
-        <v>820</v>
+        <v>913</v>
       </c>
       <c r="O102" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P102" t="n">
         <v>1</v>
@@ -9968,50 +10676,54 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>819</v>
+        <v>912</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
         <v>1040</v>
       </c>
-      <c r="B103" t="s"/>
-      <c r="C103" t="s"/>
+      <c r="B103" t="n">
+        <v>154977</v>
+      </c>
+      <c r="C103" t="s">
+        <v>914</v>
+      </c>
       <c r="D103" t="n">
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F103" t="s">
-        <v>821</v>
+        <v>915</v>
       </c>
       <c r="G103" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I103" t="s">
-        <v>822</v>
+        <v>916</v>
       </c>
       <c r="J103" t="s">
-        <v>823</v>
+        <v>917</v>
       </c>
       <c r="K103" t="s">
-        <v>824</v>
+        <v>918</v>
       </c>
       <c r="L103" t="s">
-        <v>825</v>
+        <v>919</v>
       </c>
       <c r="M103" t="n">
         <v>5</v>
       </c>
       <c r="N103" t="s">
-        <v>826</v>
+        <v>920</v>
       </c>
       <c r="O103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P103" t="n">
         <v>4</v>
@@ -10035,50 +10747,54 @@
       <c r="W103" t="s"/>
       <c r="X103" t="s"/>
       <c r="Y103" t="s">
-        <v>825</v>
+        <v>919</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
         <v>1040</v>
       </c>
-      <c r="B104" t="s"/>
-      <c r="C104" t="s"/>
+      <c r="B104" t="n">
+        <v>41777</v>
+      </c>
+      <c r="C104" t="s">
+        <v>921</v>
+      </c>
       <c r="D104" t="n">
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F104" t="s">
-        <v>827</v>
+        <v>922</v>
       </c>
       <c r="G104" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H104" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I104" t="s">
-        <v>828</v>
+        <v>923</v>
       </c>
       <c r="J104" t="s">
-        <v>829</v>
+        <v>924</v>
       </c>
       <c r="K104" t="s">
-        <v>830</v>
+        <v>925</v>
       </c>
       <c r="L104" t="s">
-        <v>831</v>
+        <v>926</v>
       </c>
       <c r="M104" t="n">
         <v>4</v>
       </c>
       <c r="N104" t="s">
-        <v>793</v>
+        <v>882</v>
       </c>
       <c r="O104" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P104" t="n">
         <v>5</v>
@@ -10102,50 +10818,54 @@
       <c r="W104" t="s"/>
       <c r="X104" t="s"/>
       <c r="Y104" t="s">
-        <v>832</v>
+        <v>927</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
         <v>1040</v>
       </c>
-      <c r="B105" t="s"/>
-      <c r="C105" t="s"/>
+      <c r="B105" t="n">
+        <v>154978</v>
+      </c>
+      <c r="C105" t="s">
+        <v>928</v>
+      </c>
       <c r="D105" t="n">
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F105" t="s">
-        <v>833</v>
+        <v>929</v>
       </c>
       <c r="G105" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H105" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I105" t="s">
-        <v>834</v>
+        <v>930</v>
       </c>
       <c r="J105" t="s">
-        <v>835</v>
+        <v>931</v>
       </c>
       <c r="K105" t="s">
-        <v>836</v>
+        <v>932</v>
       </c>
       <c r="L105" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
       <c r="M105" t="n">
         <v>5</v>
       </c>
       <c r="N105" t="s">
-        <v>838</v>
+        <v>934</v>
       </c>
       <c r="O105" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P105" t="n">
         <v>5</v>
@@ -10169,50 +10889,54 @@
       <c r="W105" t="s"/>
       <c r="X105" t="s"/>
       <c r="Y105" t="s">
-        <v>837</v>
+        <v>933</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
         <v>1040</v>
       </c>
-      <c r="B106" t="s"/>
-      <c r="C106" t="s"/>
+      <c r="B106" t="n">
+        <v>154979</v>
+      </c>
+      <c r="C106" t="s">
+        <v>935</v>
+      </c>
       <c r="D106" t="n">
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F106" t="s">
-        <v>839</v>
+        <v>936</v>
       </c>
       <c r="G106" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I106" t="s">
-        <v>840</v>
+        <v>937</v>
       </c>
       <c r="J106" t="s">
-        <v>841</v>
+        <v>938</v>
       </c>
       <c r="K106" t="s">
-        <v>842</v>
+        <v>939</v>
       </c>
       <c r="L106" t="s">
-        <v>843</v>
+        <v>940</v>
       </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
       <c r="N106" t="s">
-        <v>844</v>
+        <v>941</v>
       </c>
       <c r="O106" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P106" t="n">
         <v>1</v>
@@ -10234,56 +10958,60 @@
         <v>0</v>
       </c>
       <c r="W106" t="s">
-        <v>845</v>
+        <v>942</v>
       </c>
       <c r="X106" t="s">
-        <v>846</v>
+        <v>943</v>
       </c>
       <c r="Y106" t="s">
-        <v>847</v>
+        <v>944</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
         <v>1040</v>
       </c>
-      <c r="B107" t="s"/>
-      <c r="C107" t="s"/>
+      <c r="B107" t="n">
+        <v>154980</v>
+      </c>
+      <c r="C107" t="s">
+        <v>945</v>
+      </c>
       <c r="D107" t="n">
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F107" t="s">
-        <v>848</v>
+        <v>946</v>
       </c>
       <c r="G107" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H107" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I107" t="s">
-        <v>849</v>
+        <v>947</v>
       </c>
       <c r="J107" t="s">
-        <v>850</v>
+        <v>948</v>
       </c>
       <c r="K107" t="s">
-        <v>851</v>
+        <v>949</v>
       </c>
       <c r="L107" t="s">
-        <v>852</v>
+        <v>950</v>
       </c>
       <c r="M107" t="n">
         <v>4</v>
       </c>
       <c r="N107" t="s">
-        <v>853</v>
+        <v>951</v>
       </c>
       <c r="O107" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P107" t="n">
         <v>5</v>
@@ -10307,50 +11035,54 @@
       <c r="W107" t="s"/>
       <c r="X107" t="s"/>
       <c r="Y107" t="s">
-        <v>852</v>
+        <v>950</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
         <v>1040</v>
       </c>
-      <c r="B108" t="s"/>
-      <c r="C108" t="s"/>
+      <c r="B108" t="n">
+        <v>123920</v>
+      </c>
+      <c r="C108" t="s">
+        <v>952</v>
+      </c>
       <c r="D108" t="n">
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F108" t="s">
-        <v>854</v>
+        <v>953</v>
       </c>
       <c r="G108" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H108" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I108" t="s">
-        <v>855</v>
+        <v>954</v>
       </c>
       <c r="J108" t="s">
-        <v>856</v>
+        <v>955</v>
       </c>
       <c r="K108" t="s">
-        <v>857</v>
+        <v>956</v>
       </c>
       <c r="L108" t="s">
-        <v>858</v>
+        <v>957</v>
       </c>
       <c r="M108" t="n">
         <v>4</v>
       </c>
       <c r="N108" t="s">
-        <v>859</v>
+        <v>958</v>
       </c>
       <c r="O108" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="P108" t="n">
         <v>5</v>
@@ -10370,50 +11102,54 @@
       <c r="W108" t="s"/>
       <c r="X108" t="s"/>
       <c r="Y108" t="s">
-        <v>860</v>
+        <v>959</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
         <v>1040</v>
       </c>
-      <c r="B109" t="s"/>
-      <c r="C109" t="s"/>
+      <c r="B109" t="n">
+        <v>154981</v>
+      </c>
+      <c r="C109" t="s">
+        <v>960</v>
+      </c>
       <c r="D109" t="n">
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F109" t="s">
-        <v>861</v>
+        <v>961</v>
       </c>
       <c r="G109" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H109" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I109" t="s">
-        <v>862</v>
+        <v>962</v>
       </c>
       <c r="J109" t="s">
-        <v>863</v>
+        <v>963</v>
       </c>
       <c r="K109" t="s">
-        <v>864</v>
+        <v>964</v>
       </c>
       <c r="L109" t="s">
-        <v>865</v>
+        <v>965</v>
       </c>
       <c r="M109" t="n">
         <v>4</v>
       </c>
       <c r="N109" t="s">
-        <v>844</v>
+        <v>941</v>
       </c>
       <c r="O109" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P109" t="n">
         <v>4</v>
@@ -10433,50 +11169,54 @@
       <c r="W109" t="s"/>
       <c r="X109" t="s"/>
       <c r="Y109" t="s">
-        <v>865</v>
+        <v>965</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
         <v>1040</v>
       </c>
-      <c r="B110" t="s"/>
-      <c r="C110" t="s"/>
+      <c r="B110" t="n">
+        <v>154982</v>
+      </c>
+      <c r="C110" t="s">
+        <v>966</v>
+      </c>
       <c r="D110" t="n">
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F110" t="s">
-        <v>866</v>
+        <v>967</v>
       </c>
       <c r="G110" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H110" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I110" t="s">
-        <v>867</v>
+        <v>968</v>
       </c>
       <c r="J110" t="s">
-        <v>868</v>
+        <v>969</v>
       </c>
       <c r="K110" t="s">
-        <v>869</v>
+        <v>970</v>
       </c>
       <c r="L110" t="s">
-        <v>870</v>
+        <v>971</v>
       </c>
       <c r="M110" t="n">
         <v>5</v>
       </c>
       <c r="N110" t="s">
-        <v>871</v>
+        <v>972</v>
       </c>
       <c r="O110" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P110" t="n">
         <v>5</v>
@@ -10496,50 +11236,54 @@
       <c r="W110" t="s"/>
       <c r="X110" t="s"/>
       <c r="Y110" t="s">
-        <v>870</v>
+        <v>971</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
         <v>1040</v>
       </c>
-      <c r="B111" t="s"/>
-      <c r="C111" t="s"/>
+      <c r="B111" t="n">
+        <v>154983</v>
+      </c>
+      <c r="C111" t="s">
+        <v>973</v>
+      </c>
       <c r="D111" t="n">
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F111" t="s">
-        <v>872</v>
+        <v>974</v>
       </c>
       <c r="G111" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H111" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I111" t="s">
-        <v>873</v>
+        <v>975</v>
       </c>
       <c r="J111" t="s">
-        <v>874</v>
+        <v>976</v>
       </c>
       <c r="K111" t="s">
-        <v>875</v>
+        <v>977</v>
       </c>
       <c r="L111" t="s">
-        <v>876</v>
+        <v>978</v>
       </c>
       <c r="M111" t="n">
         <v>3</v>
       </c>
       <c r="N111" t="s">
-        <v>877</v>
+        <v>979</v>
       </c>
       <c r="O111" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P111" t="n">
         <v>3</v>
@@ -10559,50 +11303,54 @@
       <c r="W111" t="s"/>
       <c r="X111" t="s"/>
       <c r="Y111" t="s">
-        <v>878</v>
+        <v>980</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
         <v>1040</v>
       </c>
-      <c r="B112" t="s"/>
-      <c r="C112" t="s"/>
+      <c r="B112" t="n">
+        <v>154984</v>
+      </c>
+      <c r="C112" t="s">
+        <v>981</v>
+      </c>
       <c r="D112" t="n">
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>879</v>
+        <v>982</v>
       </c>
       <c r="G112" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H112" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I112" t="s">
-        <v>880</v>
+        <v>983</v>
       </c>
       <c r="J112" t="s">
-        <v>881</v>
+        <v>984</v>
       </c>
       <c r="K112" t="s">
-        <v>882</v>
+        <v>985</v>
       </c>
       <c r="L112" t="s">
-        <v>883</v>
+        <v>986</v>
       </c>
       <c r="M112" t="n">
         <v>4</v>
       </c>
       <c r="N112" t="s">
-        <v>884</v>
+        <v>987</v>
       </c>
       <c r="O112" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P112" t="n">
         <v>4</v>
@@ -10626,50 +11374,54 @@
       <c r="W112" t="s"/>
       <c r="X112" t="s"/>
       <c r="Y112" t="s">
-        <v>883</v>
+        <v>986</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
         <v>1040</v>
       </c>
-      <c r="B113" t="s"/>
-      <c r="C113" t="s"/>
+      <c r="B113" t="n">
+        <v>79376</v>
+      </c>
+      <c r="C113" t="s">
+        <v>988</v>
+      </c>
       <c r="D113" t="n">
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>885</v>
+        <v>989</v>
       </c>
       <c r="G113" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H113" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I113" t="s">
-        <v>886</v>
+        <v>990</v>
       </c>
       <c r="J113" t="s">
-        <v>887</v>
+        <v>991</v>
       </c>
       <c r="K113" t="s">
-        <v>888</v>
+        <v>992</v>
       </c>
       <c r="L113" t="s">
-        <v>889</v>
+        <v>993</v>
       </c>
       <c r="M113" t="n">
         <v>5</v>
       </c>
       <c r="N113" t="s">
-        <v>890</v>
+        <v>994</v>
       </c>
       <c r="O113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P113" t="n">
         <v>5</v>
@@ -10693,50 +11445,54 @@
       <c r="W113" t="s"/>
       <c r="X113" t="s"/>
       <c r="Y113" t="s">
-        <v>891</v>
+        <v>995</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
         <v>1040</v>
       </c>
-      <c r="B114" t="s"/>
-      <c r="C114" t="s"/>
+      <c r="B114" t="n">
+        <v>154985</v>
+      </c>
+      <c r="C114" t="s">
+        <v>996</v>
+      </c>
       <c r="D114" t="n">
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>892</v>
+        <v>997</v>
       </c>
       <c r="G114" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H114" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I114" t="s">
-        <v>893</v>
+        <v>998</v>
       </c>
       <c r="J114" t="s">
-        <v>894</v>
+        <v>999</v>
       </c>
       <c r="K114" t="s">
-        <v>895</v>
+        <v>1000</v>
       </c>
       <c r="L114" t="s">
-        <v>896</v>
+        <v>1001</v>
       </c>
       <c r="M114" t="n">
         <v>4</v>
       </c>
       <c r="N114" t="s">
-        <v>897</v>
+        <v>1002</v>
       </c>
       <c r="O114" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P114" t="n">
         <v>3</v>
@@ -10760,50 +11516,54 @@
       <c r="W114" t="s"/>
       <c r="X114" t="s"/>
       <c r="Y114" t="s">
-        <v>898</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
         <v>1040</v>
       </c>
-      <c r="B115" t="s"/>
-      <c r="C115" t="s"/>
+      <c r="B115" t="n">
+        <v>154986</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1004</v>
+      </c>
       <c r="D115" t="n">
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>899</v>
+        <v>1005</v>
       </c>
       <c r="G115" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H115" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I115" t="s">
-        <v>900</v>
+        <v>1006</v>
       </c>
       <c r="J115" t="s">
-        <v>901</v>
+        <v>1007</v>
       </c>
       <c r="K115" t="s">
-        <v>902</v>
+        <v>1008</v>
       </c>
       <c r="L115" t="s">
-        <v>903</v>
+        <v>1009</v>
       </c>
       <c r="M115" t="n">
         <v>3</v>
       </c>
       <c r="N115" t="s">
-        <v>904</v>
+        <v>1010</v>
       </c>
       <c r="O115" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="P115" t="n">
         <v>3</v>
@@ -10827,50 +11587,54 @@
       <c r="W115" t="s"/>
       <c r="X115" t="s"/>
       <c r="Y115" t="s">
-        <v>903</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
         <v>1040</v>
       </c>
-      <c r="B116" t="s"/>
-      <c r="C116" t="s"/>
+      <c r="B116" t="n">
+        <v>154987</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1011</v>
+      </c>
       <c r="D116" t="n">
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>905</v>
+        <v>1012</v>
       </c>
       <c r="G116" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H116" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I116" t="s">
-        <v>906</v>
+        <v>1013</v>
       </c>
       <c r="J116" t="s">
-        <v>907</v>
+        <v>1014</v>
       </c>
       <c r="K116" t="s">
-        <v>908</v>
+        <v>1015</v>
       </c>
       <c r="L116" t="s">
-        <v>909</v>
+        <v>1016</v>
       </c>
       <c r="M116" t="n">
         <v>4</v>
       </c>
       <c r="N116" t="s">
-        <v>910</v>
+        <v>1017</v>
       </c>
       <c r="O116" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P116" t="n">
         <v>5</v>
@@ -10894,7 +11658,7 @@
       <c r="W116" t="s"/>
       <c r="X116" t="s"/>
       <c r="Y116" t="s">
-        <v>911</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="117">
@@ -10907,37 +11671,37 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F117" t="s">
-        <v>912</v>
+        <v>1019</v>
       </c>
       <c r="G117" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H117" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I117" t="s">
-        <v>913</v>
+        <v>1020</v>
       </c>
       <c r="J117" t="s">
-        <v>914</v>
+        <v>1021</v>
       </c>
       <c r="K117" t="s">
-        <v>915</v>
+        <v>1022</v>
       </c>
       <c r="L117" t="s">
-        <v>916</v>
+        <v>1023</v>
       </c>
       <c r="M117" t="n">
         <v>3</v>
       </c>
       <c r="N117" t="s">
-        <v>917</v>
+        <v>1024</v>
       </c>
       <c r="O117" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P117" t="s"/>
       <c r="Q117" t="n">
@@ -10959,7 +11723,7 @@
       <c r="W117" t="s"/>
       <c r="X117" t="s"/>
       <c r="Y117" t="s">
-        <v>918</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="118">
@@ -10972,28 +11736,28 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F118" t="s">
-        <v>919</v>
+        <v>1026</v>
       </c>
       <c r="G118" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H118" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I118" t="s">
-        <v>920</v>
+        <v>1027</v>
       </c>
       <c r="J118" t="s">
-        <v>921</v>
+        <v>1028</v>
       </c>
       <c r="K118" t="s">
-        <v>922</v>
+        <v>1029</v>
       </c>
       <c r="L118" t="s">
-        <v>923</v>
+        <v>1030</v>
       </c>
       <c r="M118" t="n">
         <v>2</v>
@@ -11020,41 +11784,45 @@
       <c r="W118" t="s"/>
       <c r="X118" t="s"/>
       <c r="Y118" t="s">
-        <v>924</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
         <v>1040</v>
       </c>
-      <c r="B119" t="s"/>
-      <c r="C119" t="s"/>
+      <c r="B119" t="n">
+        <v>7</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1032</v>
+      </c>
       <c r="D119" t="n">
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F119" t="s">
-        <v>925</v>
+        <v>1033</v>
       </c>
       <c r="G119" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H119" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I119" t="s">
-        <v>926</v>
+        <v>1034</v>
       </c>
       <c r="J119" t="s">
-        <v>927</v>
+        <v>1035</v>
       </c>
       <c r="K119" t="s">
-        <v>928</v>
+        <v>1036</v>
       </c>
       <c r="L119" t="s">
-        <v>929</v>
+        <v>1037</v>
       </c>
       <c r="M119" t="n">
         <v>5</v>
@@ -11073,7 +11841,7 @@
       <c r="W119" t="s"/>
       <c r="X119" t="s"/>
       <c r="Y119" t="s">
-        <v>929</v>
+        <v>1037</v>
       </c>
     </row>
   </sheetData>
